--- a/data_month/zb/金融/货币供应量.xlsx
+++ b/data_month/zb/金融/货币供应量.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -468,6576 +468,6576 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年10月</t>
+          <t>2000-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11.8</v>
+        <v>34.2</v>
       </c>
       <c r="C2" t="n">
-        <v>13589.45</v>
+        <v>16093.9</v>
       </c>
       <c r="D2" t="n">
-        <v>18.2</v>
+        <v>19.4</v>
       </c>
       <c r="E2" t="n">
-        <v>49952.84</v>
+        <v>46570.1</v>
       </c>
       <c r="F2" t="n">
-        <v>12.3</v>
+        <v>14.9</v>
       </c>
       <c r="G2" t="n">
-        <v>127432.53</v>
+        <v>118907.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2000年11月</t>
+          <t>2000-02</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.2</v>
+        <v>9.4</v>
       </c>
       <c r="C3" t="n">
-        <v>13877.7</v>
+        <v>13983</v>
       </c>
       <c r="D3" t="n">
-        <v>17.1</v>
+        <v>15.3</v>
       </c>
       <c r="E3" t="n">
-        <v>50787.49</v>
+        <v>44679.2</v>
       </c>
       <c r="F3" t="n">
-        <v>12.4</v>
+        <v>12.8</v>
       </c>
       <c r="G3" t="n">
-        <v>128887.4</v>
+        <v>119353.6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2000年12月</t>
+          <t>2000-03</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.9</v>
+        <v>16.7</v>
       </c>
       <c r="C4" t="n">
-        <v>14652.65</v>
+        <v>13235.4</v>
       </c>
       <c r="D4" t="n">
-        <v>16</v>
+        <v>18.7</v>
       </c>
       <c r="E4" t="n">
-        <v>53147.15</v>
+        <v>45158.45</v>
       </c>
       <c r="F4" t="n">
-        <v>12.3</v>
+        <v>13</v>
       </c>
       <c r="G4" t="n">
-        <v>132487.52</v>
+        <v>120399.58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2000年1月</t>
+          <t>2000-04</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>34.2</v>
+        <v>21.8</v>
       </c>
       <c r="C5" t="n">
-        <v>16093.9</v>
+        <v>13675.5</v>
       </c>
       <c r="D5" t="n">
-        <v>19.4</v>
+        <v>21.7</v>
       </c>
       <c r="E5" t="n">
-        <v>46570.1</v>
+        <v>46319.03</v>
       </c>
       <c r="F5" t="n">
-        <v>14.9</v>
+        <v>13.7</v>
       </c>
       <c r="G5" t="n">
-        <v>118907.8</v>
+        <v>121914.77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2000年2月</t>
+          <t>2000-05</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.4</v>
+        <v>20.1</v>
       </c>
       <c r="C6" t="n">
-        <v>13983</v>
+        <v>13075.45</v>
       </c>
       <c r="D6" t="n">
-        <v>15.3</v>
+        <v>22.3</v>
       </c>
       <c r="E6" t="n">
-        <v>44679.2</v>
+        <v>46490.23</v>
       </c>
       <c r="F6" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="G6" t="n">
-        <v>119353.6</v>
+        <v>121902.65</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2000年3月</t>
+          <t>2000-06</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.7</v>
+        <v>19.5</v>
       </c>
       <c r="C7" t="n">
-        <v>13235.4</v>
+        <v>13006.04</v>
       </c>
       <c r="D7" t="n">
-        <v>18.7</v>
+        <v>23.7</v>
       </c>
       <c r="E7" t="n">
-        <v>45158.45</v>
+        <v>48024.4</v>
       </c>
       <c r="F7" t="n">
-        <v>13</v>
+        <v>13.7</v>
       </c>
       <c r="G7" t="n">
-        <v>120399.58</v>
+        <v>124486.78</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2000年4月</t>
+          <t>2000-07</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21.8</v>
+        <v>17.5</v>
       </c>
       <c r="C8" t="n">
-        <v>13675.5</v>
+        <v>13156.47</v>
       </c>
       <c r="D8" t="n">
-        <v>21.7</v>
+        <v>22.6</v>
       </c>
       <c r="E8" t="n">
-        <v>46319.03</v>
+        <v>47803.09</v>
       </c>
       <c r="F8" t="n">
-        <v>13.7</v>
+        <v>13.4</v>
       </c>
       <c r="G8" t="n">
-        <v>121914.77</v>
+        <v>124192.78</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2000年5月</t>
+          <t>2000-08</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.1</v>
+        <v>17.4</v>
       </c>
       <c r="C9" t="n">
-        <v>13075.45</v>
+        <v>13378.68</v>
       </c>
       <c r="D9" t="n">
-        <v>22.3</v>
+        <v>21.9</v>
       </c>
       <c r="E9" t="n">
-        <v>46490.23</v>
+        <v>48885.38</v>
       </c>
       <c r="F9" t="n">
-        <v>12.7</v>
+        <v>13.3</v>
       </c>
       <c r="G9" t="n">
-        <v>121902.65</v>
+        <v>125673.26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2000年6月</t>
+          <t>2000-09</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.5</v>
+        <v>13.4</v>
       </c>
       <c r="C10" t="n">
-        <v>13006.04</v>
+        <v>13894.69</v>
       </c>
       <c r="D10" t="n">
-        <v>23.7</v>
+        <v>20.8</v>
       </c>
       <c r="E10" t="n">
-        <v>48024.4</v>
+        <v>50616.89</v>
       </c>
       <c r="F10" t="n">
-        <v>13.7</v>
+        <v>13.4</v>
       </c>
       <c r="G10" t="n">
-        <v>124486.78</v>
+        <v>128352.61</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2000年7月</t>
+          <t>2000-10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>17.5</v>
+        <v>11.8</v>
       </c>
       <c r="C11" t="n">
-        <v>13156.47</v>
+        <v>13589.45</v>
       </c>
       <c r="D11" t="n">
-        <v>22.6</v>
+        <v>18.2</v>
       </c>
       <c r="E11" t="n">
-        <v>47803.09</v>
+        <v>49952.84</v>
       </c>
       <c r="F11" t="n">
-        <v>13.4</v>
+        <v>12.3</v>
       </c>
       <c r="G11" t="n">
-        <v>124192.78</v>
+        <v>127432.53</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2000年8月</t>
+          <t>2000-11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>17.4</v>
+        <v>11.2</v>
       </c>
       <c r="C12" t="n">
-        <v>13378.68</v>
+        <v>13877.7</v>
       </c>
       <c r="D12" t="n">
-        <v>21.9</v>
+        <v>17.1</v>
       </c>
       <c r="E12" t="n">
-        <v>48885.38</v>
+        <v>50787.49</v>
       </c>
       <c r="F12" t="n">
-        <v>13.3</v>
+        <v>12.4</v>
       </c>
       <c r="G12" t="n">
-        <v>125673.26</v>
+        <v>128887.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2000年9月</t>
+          <t>2000-12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13.4</v>
+        <v>8.9</v>
       </c>
       <c r="C13" t="n">
-        <v>13894.69</v>
+        <v>14652.65</v>
       </c>
       <c r="D13" t="n">
-        <v>20.8</v>
+        <v>16</v>
       </c>
       <c r="E13" t="n">
-        <v>50616.89</v>
+        <v>53147.15</v>
       </c>
       <c r="F13" t="n">
-        <v>13.4</v>
+        <v>12.3</v>
       </c>
       <c r="G13" t="n">
-        <v>128352.61</v>
+        <v>132487.52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2001年10月</t>
+          <t>2001-01</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.6</v>
+        <v>5.8</v>
       </c>
       <c r="C14" t="n">
-        <v>14484.61</v>
+        <v>17018.98</v>
       </c>
       <c r="D14" t="n">
-        <v>12.3</v>
+        <v>16.8</v>
       </c>
       <c r="E14" t="n">
-        <v>56114.9</v>
+        <v>54406.23</v>
       </c>
       <c r="F14" t="n">
-        <v>12.9</v>
+        <v>13.5</v>
       </c>
       <c r="G14" t="n">
-        <v>146157.58</v>
+        <v>135685.99</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2001年11月</t>
+          <t>2001-02</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="C15" t="n">
-        <v>14780</v>
+        <v>14910.39</v>
       </c>
       <c r="D15" t="n">
-        <v>11.4</v>
+        <v>16.4</v>
       </c>
       <c r="E15" t="n">
-        <v>56579.6</v>
+        <v>51997.68</v>
       </c>
       <c r="F15" t="n">
-        <v>17.6</v>
+        <v>12</v>
       </c>
       <c r="G15" t="n">
-        <v>154088.3</v>
+        <v>134390.49</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2001年12月</t>
+          <t>2001-03</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7.1</v>
+        <v>8.5</v>
       </c>
       <c r="C16" t="n">
-        <v>15688.8</v>
+        <v>14362.12</v>
       </c>
       <c r="D16" t="n">
-        <v>12.7</v>
+        <v>17.4</v>
       </c>
       <c r="E16" t="n">
-        <v>59871.59</v>
+        <v>53033.36</v>
       </c>
       <c r="F16" t="n">
-        <v>14.4</v>
+        <v>13.2</v>
       </c>
       <c r="G16" t="n">
-        <v>152888.5</v>
+        <v>136915.12</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2001年1月</t>
+          <t>2001-04</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5.8</v>
+        <v>6.9</v>
       </c>
       <c r="C17" t="n">
-        <v>17018.98</v>
+        <v>14622.99</v>
       </c>
       <c r="D17" t="n">
-        <v>16.8</v>
+        <v>15</v>
       </c>
       <c r="E17" t="n">
-        <v>54406.23</v>
+        <v>53261.32</v>
       </c>
       <c r="F17" t="n">
-        <v>13.5</v>
+        <v>12.8</v>
       </c>
       <c r="G17" t="n">
-        <v>135685.99</v>
+        <v>138121.03</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2001年2月</t>
+          <t>2001-05</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>6.6</v>
       </c>
       <c r="C18" t="n">
-        <v>14910.39</v>
+        <v>13942.28</v>
       </c>
       <c r="D18" t="n">
-        <v>16.4</v>
+        <v>13</v>
       </c>
       <c r="E18" t="n">
-        <v>51997.68</v>
+        <v>52542.99</v>
       </c>
       <c r="F18" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="G18" t="n">
-        <v>134390.49</v>
+        <v>137219.27</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2001年3月</t>
+          <t>2001-06</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8.5</v>
+        <v>7.2</v>
       </c>
       <c r="C19" t="n">
-        <v>14362.12</v>
+        <v>13943.44</v>
       </c>
       <c r="D19" t="n">
-        <v>17.4</v>
+        <v>14.9</v>
       </c>
       <c r="E19" t="n">
-        <v>53033.36</v>
+        <v>55187.36</v>
       </c>
       <c r="F19" t="n">
-        <v>13.2</v>
+        <v>14.3</v>
       </c>
       <c r="G19" t="n">
-        <v>136915.12</v>
+        <v>141885.6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2001年4月</t>
+          <t>2001-07</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="C20" t="n">
-        <v>14622.99</v>
+        <v>14071.62</v>
       </c>
       <c r="D20" t="n">
-        <v>15</v>
+        <v>11.9</v>
       </c>
       <c r="E20" t="n">
-        <v>53261.32</v>
+        <v>53502.8</v>
       </c>
       <c r="F20" t="n">
-        <v>12.8</v>
+        <v>13.5</v>
       </c>
       <c r="G20" t="n">
-        <v>138121.03</v>
+        <v>140076.48</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2001年5月</t>
+          <t>2001-08</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="C21" t="n">
-        <v>13942.28</v>
+        <v>14370.13</v>
       </c>
       <c r="D21" t="n">
-        <v>13</v>
+        <v>14.2</v>
       </c>
       <c r="E21" t="n">
-        <v>52542.99</v>
+        <v>55808.92</v>
       </c>
       <c r="F21" t="n">
-        <v>12.1</v>
+        <v>13.6</v>
       </c>
       <c r="G21" t="n">
-        <v>137219.27</v>
+        <v>143787.3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2001年6月</t>
+          <t>2001-09</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7.2</v>
+        <v>8.4</v>
       </c>
       <c r="C22" t="n">
-        <v>13943.44</v>
+        <v>15064.6</v>
       </c>
       <c r="D22" t="n">
-        <v>14.9</v>
+        <v>12.3</v>
       </c>
       <c r="E22" t="n">
-        <v>55187.36</v>
+        <v>56824</v>
       </c>
       <c r="F22" t="n">
-        <v>14.3</v>
+        <v>16.4</v>
       </c>
       <c r="G22" t="n">
-        <v>141885.6</v>
+        <v>151822.6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2001年7月</t>
+          <t>2001-10</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="C23" t="n">
-        <v>14071.62</v>
+        <v>14484.61</v>
       </c>
       <c r="D23" t="n">
-        <v>11.9</v>
+        <v>12.3</v>
       </c>
       <c r="E23" t="n">
-        <v>53502.8</v>
+        <v>56114.9</v>
       </c>
       <c r="F23" t="n">
-        <v>13.5</v>
+        <v>12.9</v>
       </c>
       <c r="G23" t="n">
-        <v>140076.48</v>
+        <v>146157.58</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2001年8月</t>
+          <t>2001-11</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>7.4</v>
+        <v>6.5</v>
       </c>
       <c r="C24" t="n">
-        <v>14370.13</v>
+        <v>14780</v>
       </c>
       <c r="D24" t="n">
-        <v>14.2</v>
+        <v>11.4</v>
       </c>
       <c r="E24" t="n">
-        <v>55808.92</v>
+        <v>56579.6</v>
       </c>
       <c r="F24" t="n">
-        <v>13.6</v>
+        <v>17.6</v>
       </c>
       <c r="G24" t="n">
-        <v>143787.3</v>
+        <v>154088.3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2001年9月</t>
+          <t>2001-12</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8.4</v>
+        <v>7.1</v>
       </c>
       <c r="C25" t="n">
-        <v>15064.6</v>
+        <v>15688.8</v>
       </c>
       <c r="D25" t="n">
-        <v>12.3</v>
+        <v>12.7</v>
       </c>
       <c r="E25" t="n">
-        <v>56824</v>
+        <v>59871.59</v>
       </c>
       <c r="F25" t="n">
-        <v>16.4</v>
+        <v>14.4</v>
       </c>
       <c r="G25" t="n">
-        <v>151822.6</v>
+        <v>152888.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2002年10月</t>
+          <t>2002-01</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>10.6</v>
+        <v>-1.7</v>
       </c>
       <c r="C26" t="n">
-        <v>16015.18</v>
+        <v>16727.06</v>
       </c>
       <c r="D26" t="n">
-        <v>17.9</v>
+        <v>9.5</v>
       </c>
       <c r="E26" t="n">
-        <v>67100.77</v>
+        <v>60577.23</v>
       </c>
       <c r="F26" t="n">
-        <v>17</v>
+        <v>13.1</v>
       </c>
       <c r="G26" t="n">
-        <v>175534.74</v>
+        <v>157853.45</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2002年11月</t>
+          <t>2002-02</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>10.6</v>
+        <v>11.6</v>
       </c>
       <c r="C27" t="n">
-        <v>16346.89</v>
+        <v>16642.65</v>
       </c>
       <c r="D27" t="n">
-        <v>18.5</v>
+        <v>10.9</v>
       </c>
       <c r="E27" t="n">
-        <v>67993.28</v>
+        <v>58703.97</v>
       </c>
       <c r="F27" t="n">
-        <v>16.6</v>
+        <v>13</v>
       </c>
       <c r="G27" t="n">
-        <v>178018.43</v>
+        <v>159182.97</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2002年12月</t>
+          <t>2002-03</t>
         </is>
       </c>
       <c r="B28" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="C28" t="n">
+        <v>15545.47</v>
+      </c>
+      <c r="D28" t="n">
         <v>10.1</v>
       </c>
-      <c r="C28" t="n">
-        <v>17278.43</v>
-      </c>
-      <c r="D28" t="n">
-        <v>16.8</v>
-      </c>
       <c r="E28" t="n">
-        <v>70882.19</v>
+        <v>59475.67</v>
       </c>
       <c r="F28" t="n">
-        <v>16.8</v>
+        <v>14.4</v>
       </c>
       <c r="G28" t="n">
-        <v>183246.94</v>
+        <v>162300.93</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2002年1月</t>
+          <t>2002-04</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-1.7</v>
+        <v>8.5</v>
       </c>
       <c r="C29" t="n">
-        <v>16727.06</v>
+        <v>15864.91</v>
       </c>
       <c r="D29" t="n">
-        <v>9.5</v>
+        <v>11.5</v>
       </c>
       <c r="E29" t="n">
-        <v>60577.23</v>
+        <v>60462.04</v>
       </c>
       <c r="F29" t="n">
-        <v>13.1</v>
+        <v>14.1</v>
       </c>
       <c r="G29" t="n">
-        <v>157853.45</v>
+        <v>162825.22</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2002年2月</t>
+          <t>2002-05</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>11.6</v>
+        <v>9.6</v>
       </c>
       <c r="C30" t="n">
-        <v>16642.65</v>
+        <v>15243.74</v>
       </c>
       <c r="D30" t="n">
-        <v>10.9</v>
+        <v>14.6</v>
       </c>
       <c r="E30" t="n">
-        <v>58703.97</v>
+        <v>61247.53</v>
       </c>
       <c r="F30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G30" t="n">
-        <v>159182.97</v>
+        <v>164268.36</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2002年3月</t>
+          <t>2002-06</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>15545.47</v>
+        <v>15098.04</v>
       </c>
       <c r="D31" t="n">
-        <v>10.1</v>
+        <v>12.8</v>
       </c>
       <c r="E31" t="n">
-        <v>59475.67</v>
+        <v>63144.69</v>
       </c>
       <c r="F31" t="n">
-        <v>14.4</v>
+        <v>14.7</v>
       </c>
       <c r="G31" t="n">
-        <v>162300.93</v>
+        <v>167869.41</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2002年4月</t>
+          <t>2002-07</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>8.5</v>
+        <v>9.1</v>
       </c>
       <c r="C32" t="n">
-        <v>15864.91</v>
+        <v>15358.29</v>
       </c>
       <c r="D32" t="n">
-        <v>11.5</v>
+        <v>17</v>
       </c>
       <c r="E32" t="n">
-        <v>60462.04</v>
+        <v>63488.41</v>
       </c>
       <c r="F32" t="n">
-        <v>14.1</v>
+        <v>14.4</v>
       </c>
       <c r="G32" t="n">
-        <v>162825.22</v>
+        <v>169122.95</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2002年5月</t>
+          <t>2002-08</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>9.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>15243.74</v>
+        <v>15713.28</v>
       </c>
       <c r="D33" t="n">
         <v>14.6</v>
       </c>
       <c r="E33" t="n">
-        <v>61247.53</v>
+        <v>64869.5</v>
       </c>
       <c r="F33" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="G33" t="n">
-        <v>164268.36</v>
+        <v>171524.2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2002年6月</t>
+          <t>2002-09</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>8.300000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="C34" t="n">
-        <v>15098.04</v>
+        <v>16234.11</v>
       </c>
       <c r="D34" t="n">
-        <v>12.8</v>
+        <v>15.9</v>
       </c>
       <c r="E34" t="n">
-        <v>63144.69</v>
+        <v>66800.28999999999</v>
       </c>
       <c r="F34" t="n">
-        <v>14.7</v>
+        <v>16.5</v>
       </c>
       <c r="G34" t="n">
-        <v>167869.41</v>
+        <v>175254.87</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2002年7月</t>
+          <t>2002-10</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>9.1</v>
+        <v>10.6</v>
       </c>
       <c r="C35" t="n">
-        <v>15358.29</v>
+        <v>16015.18</v>
       </c>
       <c r="D35" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="E35" t="n">
+        <v>67100.77</v>
+      </c>
+      <c r="F35" t="n">
         <v>17</v>
       </c>
-      <c r="E35" t="n">
-        <v>63488.41</v>
-      </c>
-      <c r="F35" t="n">
-        <v>14.4</v>
-      </c>
       <c r="G35" t="n">
-        <v>169122.95</v>
+        <v>175534.74</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2002年8月</t>
+          <t>2002-11</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>9.300000000000001</v>
+        <v>10.6</v>
       </c>
       <c r="C36" t="n">
-        <v>15713.28</v>
+        <v>16346.89</v>
       </c>
       <c r="D36" t="n">
-        <v>14.6</v>
+        <v>18.5</v>
       </c>
       <c r="E36" t="n">
-        <v>64869.5</v>
+        <v>67993.28</v>
       </c>
       <c r="F36" t="n">
-        <v>15.5</v>
+        <v>16.6</v>
       </c>
       <c r="G36" t="n">
-        <v>171524.2</v>
+        <v>178018.43</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2002年9月</t>
+          <t>2002-12</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>7.8</v>
+        <v>10.1</v>
       </c>
       <c r="C37" t="n">
-        <v>16234.11</v>
+        <v>17278.43</v>
       </c>
       <c r="D37" t="n">
-        <v>15.9</v>
+        <v>16.8</v>
       </c>
       <c r="E37" t="n">
-        <v>66800.28999999999</v>
+        <v>70882.19</v>
       </c>
       <c r="F37" t="n">
-        <v>16.5</v>
+        <v>16.8</v>
       </c>
       <c r="G37" t="n">
-        <v>175254.87</v>
+        <v>183246.94</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2003年10月</t>
+          <t>2003-01</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C38" t="n">
-        <v>18250.94</v>
+        <v>21245.12</v>
       </c>
       <c r="D38" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="E38" t="n">
-        <v>80267.37</v>
+        <v>72406.05</v>
       </c>
       <c r="F38" t="n">
-        <v>21</v>
+        <v>19.3</v>
       </c>
       <c r="G38" t="n">
-        <v>212505.4</v>
+        <v>188918.38</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2003年11月</t>
+          <t>2003-02</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>12.8</v>
+        <v>7.8</v>
       </c>
       <c r="C39" t="n">
-        <v>18439.85</v>
+        <v>17937.58</v>
       </c>
       <c r="D39" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="E39" t="n">
-        <v>80815.22</v>
+        <v>69757.05</v>
       </c>
       <c r="F39" t="n">
-        <v>20.4</v>
+        <v>18.1</v>
       </c>
       <c r="G39" t="n">
-        <v>214358.84</v>
+        <v>188444.37</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2003年12月</t>
+          <t>2003-03</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>14.3</v>
+        <v>10.1</v>
       </c>
       <c r="C40" t="n">
-        <v>19746.23</v>
+        <v>17106.89</v>
       </c>
       <c r="D40" t="n">
-        <v>18.7</v>
+        <v>20.1</v>
       </c>
       <c r="E40" t="n">
-        <v>84118.81</v>
+        <v>71439.21000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>19.6</v>
+        <v>18.5</v>
       </c>
       <c r="G40" t="n">
-        <v>219226.81</v>
+        <v>192832.44</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2003年1月</t>
+          <t>2003-04</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>27</v>
+        <v>9.9</v>
       </c>
       <c r="C41" t="n">
-        <v>21245.12</v>
+        <v>17441.44</v>
       </c>
       <c r="D41" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="E41" t="n">
-        <v>72406.05</v>
+        <v>71321.53999999999</v>
       </c>
       <c r="F41" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="G41" t="n">
-        <v>188918.38</v>
+        <v>194476.98</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2003年2月</t>
+          <t>2003-05</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>7.8</v>
+        <v>12.3</v>
       </c>
       <c r="C42" t="n">
-        <v>17937.58</v>
+        <v>17115.34</v>
       </c>
       <c r="D42" t="n">
         <v>18.8</v>
       </c>
       <c r="E42" t="n">
-        <v>69757.05</v>
+        <v>72778.14999999999</v>
       </c>
       <c r="F42" t="n">
-        <v>18.1</v>
+        <v>20.2</v>
       </c>
       <c r="G42" t="n">
-        <v>188444.37</v>
+        <v>197811.96</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2003年3月</t>
+          <t>2003-06</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>10.1</v>
+        <v>12.3</v>
       </c>
       <c r="C43" t="n">
-        <v>17106.89</v>
+        <v>16957.18</v>
       </c>
       <c r="D43" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="E43" t="n">
-        <v>71439.21000000001</v>
+        <v>75923.52</v>
       </c>
       <c r="F43" t="n">
-        <v>18.5</v>
+        <v>20.8</v>
       </c>
       <c r="G43" t="n">
-        <v>192832.44</v>
+        <v>203071.74</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2003年4月</t>
+          <t>2003-07</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>9.9</v>
+        <v>13.1</v>
       </c>
       <c r="C44" t="n">
-        <v>17441.44</v>
+        <v>17362.4</v>
       </c>
       <c r="D44" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E44" t="n">
-        <v>71321.53999999999</v>
+        <v>76153.03999999999</v>
       </c>
       <c r="F44" t="n">
-        <v>19.2</v>
+        <v>20.7</v>
       </c>
       <c r="G44" t="n">
-        <v>194476.98</v>
+        <v>204381.1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2003年5月</t>
+          <t>2003-08</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="C45" t="n">
-        <v>17115.34</v>
+        <v>17607.08</v>
       </c>
       <c r="D45" t="n">
         <v>18.8</v>
       </c>
       <c r="E45" t="n">
-        <v>72778.14999999999</v>
+        <v>77033.3</v>
       </c>
       <c r="F45" t="n">
-        <v>20.2</v>
+        <v>21.6</v>
       </c>
       <c r="G45" t="n">
-        <v>197811.96</v>
+        <v>208692.4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2003年6月</t>
+          <t>2003-09</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>12.3</v>
+        <v>12.8</v>
       </c>
       <c r="C46" t="n">
-        <v>16957.18</v>
+        <v>18306.62</v>
       </c>
       <c r="D46" t="n">
-        <v>20.2</v>
+        <v>18.5</v>
       </c>
       <c r="E46" t="n">
-        <v>75923.52</v>
+        <v>79164.14</v>
       </c>
       <c r="F46" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="G46" t="n">
-        <v>203071.74</v>
+        <v>211611.5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2003年7月</t>
+          <t>2003-10</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>13.1</v>
+        <v>14</v>
       </c>
       <c r="C47" t="n">
-        <v>17362.4</v>
+        <v>18250.94</v>
       </c>
       <c r="D47" t="n">
-        <v>20</v>
+        <v>19.6</v>
       </c>
       <c r="E47" t="n">
-        <v>76153.03999999999</v>
+        <v>80267.37</v>
       </c>
       <c r="F47" t="n">
-        <v>20.7</v>
+        <v>21</v>
       </c>
       <c r="G47" t="n">
-        <v>204381.1</v>
+        <v>212505.4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2003年8月</t>
+          <t>2003-11</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>12.1</v>
+        <v>12.8</v>
       </c>
       <c r="C48" t="n">
-        <v>17607.08</v>
+        <v>18439.85</v>
       </c>
       <c r="D48" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="E48" t="n">
-        <v>77033.3</v>
+        <v>80815.22</v>
       </c>
       <c r="F48" t="n">
-        <v>21.6</v>
+        <v>20.4</v>
       </c>
       <c r="G48" t="n">
-        <v>208692.4</v>
+        <v>214358.84</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2003年9月</t>
+          <t>2003-12</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>12.8</v>
+        <v>14.3</v>
       </c>
       <c r="C49" t="n">
-        <v>18306.62</v>
+        <v>19746.23</v>
       </c>
       <c r="D49" t="n">
-        <v>18.5</v>
+        <v>18.7</v>
       </c>
       <c r="E49" t="n">
-        <v>79164.14</v>
+        <v>84118.81</v>
       </c>
       <c r="F49" t="n">
-        <v>20.7</v>
+        <v>19.6</v>
       </c>
       <c r="G49" t="n">
-        <v>211611.5</v>
+        <v>219226.81</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2004年10月</t>
+          <t>2004-01</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>10</v>
+        <v>4.9</v>
       </c>
       <c r="C50" t="n">
-        <v>20078</v>
+        <v>22287.43</v>
       </c>
       <c r="D50" t="n">
-        <v>12.6</v>
+        <v>15.7</v>
       </c>
       <c r="E50" t="n">
-        <v>90782</v>
+        <v>83805.89999999999</v>
       </c>
       <c r="F50" t="n">
-        <v>13.5</v>
+        <v>18.1</v>
       </c>
       <c r="G50" t="n">
-        <v>243740</v>
+        <v>225101.93</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2004年11月</t>
+          <t>2004-02</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>9.6</v>
+        <v>10.9</v>
       </c>
       <c r="C51" t="n">
-        <v>20209.25</v>
+        <v>19893.44</v>
       </c>
       <c r="D51" t="n">
-        <v>13.8</v>
+        <v>19.8</v>
       </c>
       <c r="E51" t="n">
-        <v>92387.13</v>
+        <v>83556.42999999999</v>
       </c>
       <c r="F51" t="n">
-        <v>14</v>
+        <v>19.4</v>
       </c>
       <c r="G51" t="n">
-        <v>247135.58</v>
+        <v>227050.72</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2004年12月</t>
+          <t>2004-03</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>8.699999999999999</v>
+        <v>12.8</v>
       </c>
       <c r="C52" t="n">
-        <v>21468.3</v>
+        <v>19297.43</v>
       </c>
       <c r="D52" t="n">
-        <v>13.6</v>
+        <v>20.1</v>
       </c>
       <c r="E52" t="n">
-        <v>95970.82000000001</v>
+        <v>85815.57000000001</v>
       </c>
       <c r="F52" t="n">
-        <v>14.6</v>
+        <v>19.1</v>
       </c>
       <c r="G52" t="n">
-        <v>253207.7</v>
+        <v>231654.6</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2004年1月</t>
+          <t>2004-04</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>4.9</v>
+        <v>14</v>
       </c>
       <c r="C53" t="n">
-        <v>22287.43</v>
+        <v>19878.4</v>
       </c>
       <c r="D53" t="n">
-        <v>15.7</v>
+        <v>20</v>
       </c>
       <c r="E53" t="n">
-        <v>83805.89999999999</v>
+        <v>85603.64</v>
       </c>
       <c r="F53" t="n">
-        <v>18.1</v>
+        <v>19.1</v>
       </c>
       <c r="G53" t="n">
-        <v>225101.93</v>
+        <v>233627.86</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2004年2月</t>
+          <t>2004-05</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>10.9</v>
+        <v>11.3</v>
       </c>
       <c r="C54" t="n">
-        <v>19893.44</v>
+        <v>19048.43</v>
       </c>
       <c r="D54" t="n">
-        <v>19.8</v>
+        <v>18.6</v>
       </c>
       <c r="E54" t="n">
-        <v>83556.42999999999</v>
+        <v>86780.37</v>
       </c>
       <c r="F54" t="n">
-        <v>19.4</v>
+        <v>17.5</v>
       </c>
       <c r="G54" t="n">
-        <v>227050.72</v>
+        <v>234842.4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2004年3月</t>
+          <t>2004-06</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>12.8</v>
+        <v>12.2</v>
       </c>
       <c r="C55" t="n">
-        <v>19297.43</v>
+        <v>19017.58</v>
       </c>
       <c r="D55" t="n">
-        <v>20.1</v>
+        <v>16.2</v>
       </c>
       <c r="E55" t="n">
-        <v>85815.57000000001</v>
+        <v>88627.14</v>
       </c>
       <c r="F55" t="n">
-        <v>19.1</v>
+        <v>16.2</v>
       </c>
       <c r="G55" t="n">
-        <v>231654.6</v>
+        <v>238427.49</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2004年4月</t>
+          <t>2004-07</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>14</v>
+        <v>11.8</v>
       </c>
       <c r="C56" t="n">
-        <v>19878.4</v>
+        <v>19048.43</v>
       </c>
       <c r="D56" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E56" t="n">
-        <v>85603.64</v>
+        <v>86780.37</v>
       </c>
       <c r="F56" t="n">
-        <v>19.1</v>
+        <v>15.3</v>
       </c>
       <c r="G56" t="n">
-        <v>233627.86</v>
+        <v>234842.4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2004年5月</t>
+          <t>2004-08</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>11.3</v>
+        <v>10.9</v>
       </c>
       <c r="C57" t="n">
-        <v>19048.43</v>
+        <v>19517.94</v>
       </c>
       <c r="D57" t="n">
-        <v>18.6</v>
+        <v>15.1</v>
       </c>
       <c r="E57" t="n">
-        <v>86780.37</v>
+        <v>89125.33</v>
       </c>
       <c r="F57" t="n">
-        <v>17.5</v>
+        <v>13.6</v>
       </c>
       <c r="G57" t="n">
-        <v>234842.4</v>
+        <v>239729.19</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2004年6月</t>
+          <t>2004-09</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C58" t="n">
-        <v>19017.58</v>
+        <v>20524</v>
       </c>
       <c r="D58" t="n">
-        <v>16.2</v>
+        <v>13.7</v>
       </c>
       <c r="E58" t="n">
-        <v>88627.14</v>
+        <v>90439</v>
       </c>
       <c r="F58" t="n">
-        <v>16.2</v>
+        <v>13.9</v>
       </c>
       <c r="G58" t="n">
-        <v>238427.49</v>
+        <v>243757</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2004年7月</t>
+          <t>2004-10</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>11.8</v>
+        <v>10</v>
       </c>
       <c r="C59" t="n">
-        <v>19048.43</v>
+        <v>20078</v>
       </c>
       <c r="D59" t="n">
-        <v>15</v>
+        <v>12.6</v>
       </c>
       <c r="E59" t="n">
-        <v>86780.37</v>
+        <v>90782</v>
       </c>
       <c r="F59" t="n">
-        <v>15.3</v>
+        <v>13.5</v>
       </c>
       <c r="G59" t="n">
-        <v>234842.4</v>
+        <v>243740</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2004年8月</t>
+          <t>2004-11</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>10.9</v>
+        <v>9.6</v>
       </c>
       <c r="C60" t="n">
-        <v>19517.94</v>
+        <v>20209.25</v>
       </c>
       <c r="D60" t="n">
-        <v>15.1</v>
+        <v>13.8</v>
       </c>
       <c r="E60" t="n">
-        <v>89125.33</v>
+        <v>92387.13</v>
       </c>
       <c r="F60" t="n">
-        <v>13.6</v>
+        <v>14</v>
       </c>
       <c r="G60" t="n">
-        <v>239729.19</v>
+        <v>247135.58</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2004年9月</t>
+          <t>2004-12</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>12.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>20524</v>
+        <v>21468.3</v>
       </c>
       <c r="D61" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E61" t="n">
-        <v>90439</v>
+        <v>95970.82000000001</v>
       </c>
       <c r="F61" t="n">
-        <v>13.9</v>
+        <v>14.6</v>
       </c>
       <c r="G61" t="n">
-        <v>243757</v>
+        <v>253207.7</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2005年10月</t>
+          <t>2005-01</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="C62" t="n">
-        <v>21892.98</v>
+        <v>24015.41</v>
       </c>
       <c r="D62" t="n">
-        <v>12.1</v>
+        <v>15.3</v>
       </c>
       <c r="E62" t="n">
-        <v>101751.98</v>
+        <v>97079.03</v>
       </c>
       <c r="F62" t="n">
-        <v>18</v>
+        <v>14.1</v>
       </c>
       <c r="G62" t="n">
-        <v>287591.61</v>
+        <v>257708.47</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2005年11月</t>
+          <t>2005-02</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>10.9</v>
+        <v>14</v>
       </c>
       <c r="C63" t="n">
-        <v>22409.39</v>
+        <v>22667.97</v>
       </c>
       <c r="D63" t="n">
-        <v>12.7</v>
+        <v>10.6</v>
       </c>
       <c r="E63" t="n">
-        <v>104125.78</v>
+        <v>92814.95</v>
       </c>
       <c r="F63" t="n">
-        <v>18.3</v>
+        <v>13.9</v>
       </c>
       <c r="G63" t="n">
-        <v>292350.39</v>
+        <v>259357.29</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2005年12月</t>
+          <t>2005-03</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>11.9</v>
+        <v>10.1</v>
       </c>
       <c r="C64" t="n">
-        <v>24031.67</v>
+        <v>21238.95</v>
       </c>
       <c r="D64" t="n">
-        <v>11.8</v>
+        <v>9.9</v>
       </c>
       <c r="E64" t="n">
-        <v>107278.57</v>
+        <v>94743.19</v>
       </c>
       <c r="F64" t="n">
-        <v>17.6</v>
+        <v>14</v>
       </c>
       <c r="G64" t="n">
-        <v>298755.48</v>
+        <v>264588.94</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2005年1月</t>
+          <t>2005-04</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="n">
-        <v>24015.41</v>
+        <v>21666.56</v>
       </c>
       <c r="D65" t="n">
-        <v>15.3</v>
+        <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>97079.03</v>
+        <v>94593.72</v>
       </c>
       <c r="F65" t="n">
         <v>14.1</v>
       </c>
       <c r="G65" t="n">
-        <v>257708.47</v>
+        <v>266992.66</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2005年2月</t>
+          <t>2005-05</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>14</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>22667.97</v>
+        <v>20811.59</v>
       </c>
       <c r="D66" t="n">
-        <v>10.6</v>
+        <v>10.4</v>
       </c>
       <c r="E66" t="n">
-        <v>92814.95</v>
+        <v>95802.00999999999</v>
       </c>
       <c r="F66" t="n">
-        <v>13.9</v>
+        <v>14.7</v>
       </c>
       <c r="G66" t="n">
-        <v>259357.29</v>
+        <v>269240.49</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2005年3月</t>
+          <t>2005-06</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>10.1</v>
+        <v>9.6</v>
       </c>
       <c r="C67" t="n">
-        <v>21238.95</v>
+        <v>20848.76</v>
       </c>
       <c r="D67" t="n">
-        <v>9.9</v>
+        <v>11.3</v>
       </c>
       <c r="E67" t="n">
-        <v>94743.19</v>
+        <v>98601.25</v>
       </c>
       <c r="F67" t="n">
-        <v>14</v>
+        <v>15.7</v>
       </c>
       <c r="G67" t="n">
-        <v>264588.94</v>
+        <v>275785.53</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2005年4月</t>
+          <t>2005-07</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="C68" t="n">
-        <v>21666.56</v>
+        <v>21171.2</v>
       </c>
       <c r="D68" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="n">
-        <v>94593.72</v>
+        <v>97674.10000000001</v>
       </c>
       <c r="F68" t="n">
-        <v>14.1</v>
+        <v>16.3</v>
       </c>
       <c r="G68" t="n">
-        <v>266992.66</v>
+        <v>276966.28</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2005年5月</t>
+          <t>2005-08</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="C69" t="n">
-        <v>20811.59</v>
+        <v>21351.56</v>
       </c>
       <c r="D69" t="n">
-        <v>10.4</v>
+        <v>11.5</v>
       </c>
       <c r="E69" t="n">
-        <v>95802.00999999999</v>
+        <v>99377.7</v>
       </c>
       <c r="F69" t="n">
-        <v>14.7</v>
+        <v>17.3</v>
       </c>
       <c r="G69" t="n">
-        <v>269240.49</v>
+        <v>281288.22</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2005年6月</t>
+          <t>2005-09</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>9.6</v>
+        <v>8.5</v>
       </c>
       <c r="C70" t="n">
-        <v>20848.76</v>
+        <v>22272.92</v>
       </c>
       <c r="D70" t="n">
-        <v>11.3</v>
+        <v>11.6</v>
       </c>
       <c r="E70" t="n">
-        <v>98601.25</v>
+        <v>100964</v>
       </c>
       <c r="F70" t="n">
-        <v>15.7</v>
+        <v>17.9</v>
       </c>
       <c r="G70" t="n">
-        <v>275785.53</v>
+        <v>287438.27</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2005年7月</t>
+          <t>2005-10</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="C71" t="n">
-        <v>21171.2</v>
+        <v>21892.98</v>
       </c>
       <c r="D71" t="n">
-        <v>11</v>
+        <v>12.1</v>
       </c>
       <c r="E71" t="n">
-        <v>97674.10000000001</v>
+        <v>101751.98</v>
       </c>
       <c r="F71" t="n">
-        <v>16.3</v>
+        <v>18</v>
       </c>
       <c r="G71" t="n">
-        <v>276966.28</v>
+        <v>287591.61</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2005年8月</t>
+          <t>2005-11</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>9.4</v>
+        <v>10.9</v>
       </c>
       <c r="C72" t="n">
-        <v>21351.56</v>
+        <v>22409.39</v>
       </c>
       <c r="D72" t="n">
-        <v>11.5</v>
+        <v>12.7</v>
       </c>
       <c r="E72" t="n">
-        <v>99377.7</v>
+        <v>104125.78</v>
       </c>
       <c r="F72" t="n">
-        <v>17.3</v>
+        <v>18.3</v>
       </c>
       <c r="G72" t="n">
-        <v>281288.22</v>
+        <v>292350.39</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2005年9月</t>
+          <t>2005-12</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>8.5</v>
+        <v>11.9</v>
       </c>
       <c r="C73" t="n">
-        <v>22272.92</v>
+        <v>24031.67</v>
       </c>
       <c r="D73" t="n">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="E73" t="n">
-        <v>100964</v>
+        <v>107278.57</v>
       </c>
       <c r="F73" t="n">
-        <v>17.9</v>
+        <v>17.6</v>
       </c>
       <c r="G73" t="n">
-        <v>287438.27</v>
+        <v>298755.48</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2006年10月</t>
+          <t>2006-01</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>14</v>
+        <v>22.1</v>
       </c>
       <c r="C74" t="n">
-        <v>24964.16</v>
+        <v>29310.37</v>
       </c>
       <c r="D74" t="n">
-        <v>16.3</v>
+        <v>10.6</v>
       </c>
       <c r="E74" t="n">
-        <v>118359.96</v>
+        <v>107250.68</v>
       </c>
       <c r="F74" t="n">
-        <v>17.1</v>
+        <v>19.2</v>
       </c>
       <c r="G74" t="n">
-        <v>332747.17</v>
+        <v>303571.65</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2006年11月</t>
+          <t>2006-02</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>13.9</v>
+        <v>8</v>
       </c>
       <c r="C75" t="n">
-        <v>25527.25</v>
+        <v>24482.02</v>
       </c>
       <c r="D75" t="n">
-        <v>16.8</v>
+        <v>12.4</v>
       </c>
       <c r="E75" t="n">
-        <v>121644.95</v>
+        <v>104357.08</v>
       </c>
       <c r="F75" t="n">
-        <v>16.8</v>
+        <v>18.8</v>
       </c>
       <c r="G75" t="n">
-        <v>337504.15</v>
+        <v>304516.27</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2006年12月</t>
+          <t>2006-03</t>
         </is>
       </c>
       <c r="B76" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="C76" t="n">
+        <v>23472.03</v>
+      </c>
+      <c r="D76" t="n">
         <v>12.7</v>
       </c>
-      <c r="C76" t="n">
-        <v>27072.62</v>
-      </c>
-      <c r="D76" t="n">
-        <v>17.5</v>
-      </c>
       <c r="E76" t="n">
-        <v>126028.05</v>
+        <v>106737.08</v>
       </c>
       <c r="F76" t="n">
-        <v>16.9</v>
+        <v>18.8</v>
       </c>
       <c r="G76" t="n">
-        <v>345577.91</v>
+        <v>310490.65</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2006年1月</t>
+          <t>2006-04</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>22.1</v>
+        <v>11.5</v>
       </c>
       <c r="C77" t="n">
-        <v>29310.37</v>
+        <v>24155.73</v>
       </c>
       <c r="D77" t="n">
-        <v>10.6</v>
+        <v>12.5</v>
       </c>
       <c r="E77" t="n">
-        <v>107250.68</v>
+        <v>106389.11</v>
       </c>
       <c r="F77" t="n">
-        <v>19.2</v>
+        <v>18.9</v>
       </c>
       <c r="G77" t="n">
-        <v>303571.65</v>
+        <v>313702.34</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2006年2月</t>
+          <t>2006-05</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>8</v>
+        <v>12.8</v>
       </c>
       <c r="C78" t="n">
-        <v>24482.02</v>
+        <v>23465.32</v>
       </c>
       <c r="D78" t="n">
-        <v>12.4</v>
+        <v>14</v>
       </c>
       <c r="E78" t="n">
-        <v>104357.08</v>
+        <v>109219.22</v>
       </c>
       <c r="F78" t="n">
-        <v>18.8</v>
+        <v>19.1</v>
       </c>
       <c r="G78" t="n">
-        <v>304516.27</v>
+        <v>316709.81</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2006年3月</t>
+          <t>2006-06</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>10.5</v>
+        <v>12.6</v>
       </c>
       <c r="C79" t="n">
-        <v>23472.03</v>
+        <v>23469.08</v>
       </c>
       <c r="D79" t="n">
-        <v>12.7</v>
+        <v>13.9</v>
       </c>
       <c r="E79" t="n">
-        <v>106737.08</v>
+        <v>112342.36</v>
       </c>
       <c r="F79" t="n">
-        <v>18.8</v>
+        <v>18.4</v>
       </c>
       <c r="G79" t="n">
-        <v>310490.65</v>
+        <v>322756.35</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2006年4月</t>
+          <t>2006-07</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>11.5</v>
+        <v>12.2</v>
       </c>
       <c r="C80" t="n">
-        <v>24155.73</v>
+        <v>23752.59</v>
       </c>
       <c r="D80" t="n">
-        <v>12.5</v>
+        <v>15.3</v>
       </c>
       <c r="E80" t="n">
-        <v>106389.11</v>
+        <v>112653.04</v>
       </c>
       <c r="F80" t="n">
-        <v>18.9</v>
+        <v>18.4</v>
       </c>
       <c r="G80" t="n">
-        <v>313702.34</v>
+        <v>324010.76</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2006年5月</t>
+          <t>2006-08</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>12.8</v>
+        <v>13.3</v>
       </c>
       <c r="C81" t="n">
-        <v>23465.32</v>
+        <v>24185.36</v>
       </c>
       <c r="D81" t="n">
-        <v>14</v>
+        <v>15.6</v>
       </c>
       <c r="E81" t="n">
-        <v>109219.22</v>
+        <v>114845.67</v>
       </c>
       <c r="F81" t="n">
-        <v>19.1</v>
+        <v>17.9</v>
       </c>
       <c r="G81" t="n">
-        <v>316709.81</v>
+        <v>327885.67</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2006年6月</t>
+          <t>2006-09</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>12.6</v>
+        <v>15.3</v>
       </c>
       <c r="C82" t="n">
-        <v>23469.08</v>
+        <v>25687.38</v>
       </c>
       <c r="D82" t="n">
-        <v>13.9</v>
+        <v>15.7</v>
       </c>
       <c r="E82" t="n">
-        <v>112342.36</v>
+        <v>116814.1</v>
       </c>
       <c r="F82" t="n">
-        <v>18.4</v>
+        <v>16.8</v>
       </c>
       <c r="G82" t="n">
-        <v>322756.35</v>
+        <v>331865.36</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2006年7月</t>
+          <t>2006-10</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>12.2</v>
+        <v>14</v>
       </c>
       <c r="C83" t="n">
-        <v>23752.59</v>
+        <v>24964.16</v>
       </c>
       <c r="D83" t="n">
-        <v>15.3</v>
+        <v>16.3</v>
       </c>
       <c r="E83" t="n">
-        <v>112653.04</v>
+        <v>118359.96</v>
       </c>
       <c r="F83" t="n">
-        <v>18.4</v>
+        <v>17.1</v>
       </c>
       <c r="G83" t="n">
-        <v>324010.76</v>
+        <v>332747.17</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2006年8月</t>
+          <t>2006-11</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>13.3</v>
+        <v>13.9</v>
       </c>
       <c r="C84" t="n">
-        <v>24185.36</v>
+        <v>25527.25</v>
       </c>
       <c r="D84" t="n">
-        <v>15.6</v>
+        <v>16.8</v>
       </c>
       <c r="E84" t="n">
-        <v>114845.67</v>
+        <v>121644.95</v>
       </c>
       <c r="F84" t="n">
-        <v>17.9</v>
+        <v>16.8</v>
       </c>
       <c r="G84" t="n">
-        <v>327885.67</v>
+        <v>337504.15</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2006年9月</t>
+          <t>2006-12</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>15.3</v>
+        <v>12.7</v>
       </c>
       <c r="C85" t="n">
-        <v>25687.38</v>
+        <v>27072.62</v>
       </c>
       <c r="D85" t="n">
-        <v>15.7</v>
+        <v>17.5</v>
       </c>
       <c r="E85" t="n">
-        <v>116814.1</v>
+        <v>126028.05</v>
       </c>
       <c r="F85" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="G85" t="n">
-        <v>331865.36</v>
+        <v>345577.91</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2007年10月</t>
+          <t>2007-01</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>13.4</v>
+        <v>-4.6</v>
       </c>
       <c r="C86" t="n">
-        <v>28317.78</v>
+        <v>27949.13</v>
       </c>
       <c r="D86" t="n">
-        <v>22.2</v>
+        <v>19.8</v>
       </c>
       <c r="E86" t="n">
-        <v>144649.33</v>
+        <v>128484.06</v>
       </c>
       <c r="F86" t="n">
-        <v>18.5</v>
+        <v>15.8</v>
       </c>
       <c r="G86" t="n">
-        <v>394204.17</v>
+        <v>351498.77</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2007年11月</t>
+          <t>2007-02</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>13.6</v>
+        <v>25.1</v>
       </c>
       <c r="C87" t="n">
-        <v>28987.92</v>
+        <v>30627.93</v>
       </c>
       <c r="D87" t="n">
-        <v>21.7</v>
+        <v>21</v>
       </c>
       <c r="E87" t="n">
-        <v>148009.82</v>
+        <v>126258.08</v>
       </c>
       <c r="F87" t="n">
-        <v>18.5</v>
+        <v>17.8</v>
       </c>
       <c r="G87" t="n">
-        <v>399757.91</v>
+        <v>358659.25</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2007年12月</t>
+          <t>2007-03</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>12.1</v>
+        <v>16.7</v>
       </c>
       <c r="C88" t="n">
-        <v>30334.32</v>
+        <v>27387.95</v>
       </c>
       <c r="D88" t="n">
-        <v>21</v>
+        <v>19.8</v>
       </c>
       <c r="E88" t="n">
-        <v>152519.17</v>
+        <v>127881.31</v>
       </c>
       <c r="F88" t="n">
-        <v>16.7</v>
+        <v>17.3</v>
       </c>
       <c r="G88" t="n">
-        <v>403401.3</v>
+        <v>364104.66</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2007年1月</t>
+          <t>2007-04</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-4.6</v>
+        <v>15.1</v>
       </c>
       <c r="C89" t="n">
-        <v>27949.13</v>
+        <v>27813.88</v>
       </c>
       <c r="D89" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="E89" t="n">
-        <v>128484.06</v>
+        <v>127678.33</v>
       </c>
       <c r="F89" t="n">
-        <v>15.8</v>
+        <v>17.1</v>
       </c>
       <c r="G89" t="n">
-        <v>351498.77</v>
+        <v>367326.45</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2007年2月</t>
+          <t>2007-05</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>25.1</v>
+        <v>13.9</v>
       </c>
       <c r="C90" t="n">
-        <v>30627.93</v>
+        <v>26727.97</v>
       </c>
       <c r="D90" t="n">
-        <v>21</v>
+        <v>19.3</v>
       </c>
       <c r="E90" t="n">
-        <v>126258.08</v>
+        <v>130275.8</v>
       </c>
       <c r="F90" t="n">
-        <v>17.8</v>
+        <v>16.7</v>
       </c>
       <c r="G90" t="n">
-        <v>358659.25</v>
+        <v>369718.15</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2007年3月</t>
+          <t>2007-06</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>16.7</v>
+        <v>14.5</v>
       </c>
       <c r="C91" t="n">
-        <v>27387.95</v>
+        <v>26881.09</v>
       </c>
       <c r="D91" t="n">
-        <v>19.8</v>
+        <v>20.9</v>
       </c>
       <c r="E91" t="n">
-        <v>127881.31</v>
+        <v>135847.4</v>
       </c>
       <c r="F91" t="n">
-        <v>17.3</v>
+        <v>17.1</v>
       </c>
       <c r="G91" t="n">
-        <v>364104.66</v>
+        <v>377832.15</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2007年4月</t>
+          <t>2007-07</t>
         </is>
       </c>
       <c r="B92" t="n">
         <v>15.1</v>
       </c>
       <c r="C92" t="n">
-        <v>27813.88</v>
+        <v>27326.26</v>
       </c>
       <c r="D92" t="n">
-        <v>20</v>
+        <v>20.9</v>
       </c>
       <c r="E92" t="n">
-        <v>127678.33</v>
+        <v>136237.43</v>
       </c>
       <c r="F92" t="n">
-        <v>17.1</v>
+        <v>18.5</v>
       </c>
       <c r="G92" t="n">
-        <v>367326.45</v>
+        <v>383884.88</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2007年5月</t>
+          <t>2007-08</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>13.9</v>
+        <v>15</v>
       </c>
       <c r="C93" t="n">
-        <v>26727.97</v>
+        <v>27822.39</v>
       </c>
       <c r="D93" t="n">
-        <v>19.3</v>
+        <v>22.8</v>
       </c>
       <c r="E93" t="n">
-        <v>130275.8</v>
+        <v>140993.21</v>
       </c>
       <c r="F93" t="n">
-        <v>16.7</v>
+        <v>18.1</v>
       </c>
       <c r="G93" t="n">
-        <v>369718.15</v>
+        <v>387205.04</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2007年6月</t>
+          <t>2007-09</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="C94" t="n">
-        <v>26881.09</v>
+        <v>29030.58</v>
       </c>
       <c r="D94" t="n">
-        <v>20.9</v>
+        <v>22.1</v>
       </c>
       <c r="E94" t="n">
-        <v>135847.4</v>
+        <v>142591.57</v>
       </c>
       <c r="F94" t="n">
-        <v>17.1</v>
+        <v>18.5</v>
       </c>
       <c r="G94" t="n">
-        <v>377832.15</v>
+        <v>393098.91</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2007年7月</t>
+          <t>2007-10</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>15.1</v>
+        <v>13.4</v>
       </c>
       <c r="C95" t="n">
-        <v>27326.26</v>
+        <v>28317.78</v>
       </c>
       <c r="D95" t="n">
-        <v>20.9</v>
+        <v>22.2</v>
       </c>
       <c r="E95" t="n">
-        <v>136237.43</v>
+        <v>144649.33</v>
       </c>
       <c r="F95" t="n">
         <v>18.5</v>
       </c>
       <c r="G95" t="n">
-        <v>383884.88</v>
+        <v>394204.17</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2007年8月</t>
+          <t>2007-11</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>15</v>
+        <v>13.6</v>
       </c>
       <c r="C96" t="n">
-        <v>27822.39</v>
+        <v>28987.92</v>
       </c>
       <c r="D96" t="n">
-        <v>22.8</v>
+        <v>21.7</v>
       </c>
       <c r="E96" t="n">
-        <v>140993.21</v>
+        <v>148009.82</v>
       </c>
       <c r="F96" t="n">
-        <v>18.1</v>
+        <v>18.5</v>
       </c>
       <c r="G96" t="n">
-        <v>387205.04</v>
+        <v>399757.91</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2007年9月</t>
+          <t>2007-12</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>13</v>
+        <v>12.1</v>
       </c>
       <c r="C97" t="n">
-        <v>29030.58</v>
+        <v>30334.32</v>
       </c>
       <c r="D97" t="n">
-        <v>22.1</v>
+        <v>21</v>
       </c>
       <c r="E97" t="n">
-        <v>142591.57</v>
+        <v>152519.17</v>
       </c>
       <c r="F97" t="n">
-        <v>18.5</v>
+        <v>16.7</v>
       </c>
       <c r="G97" t="n">
-        <v>393098.91</v>
+        <v>403401.3</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2008年10月</t>
+          <t>2008-01</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>10.6</v>
+        <v>31.2</v>
       </c>
       <c r="C98" t="n">
-        <v>31317.84</v>
+        <v>36673.15</v>
       </c>
       <c r="D98" t="n">
-        <v>8.9</v>
+        <v>20.5</v>
       </c>
       <c r="E98" t="n">
-        <v>157194.36</v>
+        <v>154872.59</v>
       </c>
       <c r="F98" t="n">
-        <v>15</v>
+        <v>18.9</v>
       </c>
       <c r="G98" t="n">
-        <v>453133.32</v>
+        <v>417846.17</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2008年11月</t>
+          <t>2008-02</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C99" t="n">
-        <v>31607.36</v>
+        <v>32454.47</v>
       </c>
       <c r="D99" t="n">
-        <v>6.8</v>
+        <v>19</v>
       </c>
       <c r="E99" t="n">
-        <v>157826.63</v>
+        <v>150177.88</v>
       </c>
       <c r="F99" t="n">
-        <v>14.8</v>
+        <v>17.4</v>
       </c>
       <c r="G99" t="n">
-        <v>458644.66</v>
+        <v>421037.84</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2008年12月</t>
+          <t>2008-03</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>12.7</v>
+        <v>11.1</v>
       </c>
       <c r="C100" t="n">
-        <v>34218.96</v>
+        <v>30433.07</v>
       </c>
       <c r="D100" t="n">
-        <v>9.1</v>
+        <v>18</v>
       </c>
       <c r="E100" t="n">
-        <v>166217.13</v>
+        <v>150867.47</v>
       </c>
       <c r="F100" t="n">
-        <v>17.8</v>
+        <v>16.2</v>
       </c>
       <c r="G100" t="n">
-        <v>475166.6</v>
+        <v>423054.53</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2008年1月</t>
+          <t>2008-04</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>31.2</v>
+        <v>10.7</v>
       </c>
       <c r="C101" t="n">
-        <v>36673.15</v>
+        <v>30789.61</v>
       </c>
       <c r="D101" t="n">
-        <v>20.5</v>
+        <v>19.1</v>
       </c>
       <c r="E101" t="n">
-        <v>154872.59</v>
+        <v>151694.91</v>
       </c>
       <c r="F101" t="n">
-        <v>18.9</v>
+        <v>16.9</v>
       </c>
       <c r="G101" t="n">
-        <v>417846.17</v>
+        <v>429313.72</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2008年2月</t>
+          <t>2008-05</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>6</v>
+        <v>12.9</v>
       </c>
       <c r="C102" t="n">
-        <v>32454.47</v>
+        <v>30169.3</v>
       </c>
       <c r="D102" t="n">
-        <v>19</v>
+        <v>17.9</v>
       </c>
       <c r="E102" t="n">
-        <v>150177.88</v>
+        <v>153344.75</v>
       </c>
       <c r="F102" t="n">
-        <v>17.4</v>
+        <v>18.1</v>
       </c>
       <c r="G102" t="n">
-        <v>421037.84</v>
+        <v>436221.6</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2008年3月</t>
+          <t>2008-06</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>11.1</v>
+        <v>12.3</v>
       </c>
       <c r="C103" t="n">
-        <v>30433.07</v>
+        <v>30181.32</v>
       </c>
       <c r="D103" t="n">
-        <v>18</v>
+        <v>14.2</v>
       </c>
       <c r="E103" t="n">
-        <v>150867.47</v>
+        <v>154820.15</v>
       </c>
       <c r="F103" t="n">
-        <v>16.2</v>
+        <v>17.4</v>
       </c>
       <c r="G103" t="n">
-        <v>423054.53</v>
+        <v>443141.02</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2008年4月</t>
+          <t>2008-07</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>10.7</v>
+        <v>12.3</v>
       </c>
       <c r="C104" t="n">
-        <v>30789.61</v>
+        <v>30687.19</v>
       </c>
       <c r="D104" t="n">
-        <v>19.1</v>
+        <v>14</v>
       </c>
       <c r="E104" t="n">
-        <v>151694.91</v>
+        <v>154992.44</v>
       </c>
       <c r="F104" t="n">
-        <v>16.9</v>
+        <v>16.4</v>
       </c>
       <c r="G104" t="n">
-        <v>429313.72</v>
+        <v>446362.17</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2008年5月</t>
+          <t>2008-08</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>12.9</v>
+        <v>10.9</v>
       </c>
       <c r="C105" t="n">
-        <v>30169.3</v>
+        <v>30851.62</v>
       </c>
       <c r="D105" t="n">
-        <v>17.9</v>
+        <v>11.5</v>
       </c>
       <c r="E105" t="n">
-        <v>153344.75</v>
+        <v>156889.92</v>
       </c>
       <c r="F105" t="n">
-        <v>18.1</v>
+        <v>16</v>
       </c>
       <c r="G105" t="n">
-        <v>436221.6</v>
+        <v>448846.68</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2008年6月</t>
+          <t>2008-09</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>12.3</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>30181.32</v>
+        <v>31724.88</v>
       </c>
       <c r="D106" t="n">
-        <v>14.2</v>
+        <v>9.4</v>
       </c>
       <c r="E106" t="n">
-        <v>154820.15</v>
+        <v>155748.97</v>
       </c>
       <c r="F106" t="n">
-        <v>17.4</v>
+        <v>15.3</v>
       </c>
       <c r="G106" t="n">
-        <v>443141.02</v>
+        <v>452898.71</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>2008年7月</t>
+          <t>2008-10</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>12.3</v>
+        <v>10.6</v>
       </c>
       <c r="C107" t="n">
-        <v>30687.19</v>
+        <v>31317.84</v>
       </c>
       <c r="D107" t="n">
-        <v>14</v>
+        <v>8.9</v>
       </c>
       <c r="E107" t="n">
-        <v>154992.44</v>
+        <v>157194.36</v>
       </c>
       <c r="F107" t="n">
-        <v>16.4</v>
+        <v>15</v>
       </c>
       <c r="G107" t="n">
-        <v>446362.17</v>
+        <v>453133.32</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2008年8月</t>
+          <t>2008-11</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>10.9</v>
+        <v>9</v>
       </c>
       <c r="C108" t="n">
-        <v>30851.62</v>
+        <v>31607.36</v>
       </c>
       <c r="D108" t="n">
-        <v>11.5</v>
+        <v>6.8</v>
       </c>
       <c r="E108" t="n">
-        <v>156889.92</v>
+        <v>157826.63</v>
       </c>
       <c r="F108" t="n">
-        <v>16</v>
+        <v>14.8</v>
       </c>
       <c r="G108" t="n">
-        <v>448846.68</v>
+        <v>458644.66</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>2008年9月</t>
+          <t>2008-12</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>9.300000000000001</v>
+        <v>12.7</v>
       </c>
       <c r="C109" t="n">
-        <v>31724.88</v>
+        <v>34218.96</v>
       </c>
       <c r="D109" t="n">
-        <v>9.4</v>
+        <v>9.1</v>
       </c>
       <c r="E109" t="n">
-        <v>155748.97</v>
+        <v>166217.13</v>
       </c>
       <c r="F109" t="n">
-        <v>15.3</v>
+        <v>17.8</v>
       </c>
       <c r="G109" t="n">
-        <v>452898.71</v>
+        <v>475166.6</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2009年10月</t>
+          <t>2009-01</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>14.1</v>
+        <v>12</v>
       </c>
       <c r="C110" t="n">
-        <v>35730.23</v>
+        <v>41082.37</v>
       </c>
       <c r="D110" t="n">
-        <v>32</v>
+        <v>6.7</v>
       </c>
       <c r="E110" t="n">
-        <v>207545.74</v>
+        <v>165214.34</v>
       </c>
       <c r="F110" t="n">
-        <v>29.4</v>
+        <v>18.8</v>
       </c>
       <c r="G110" t="n">
-        <v>586643.29</v>
+        <v>496135.31</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>2009年11月</t>
+          <t>2009-02</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>15</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>36343.86</v>
+        <v>35141.64</v>
       </c>
       <c r="D111" t="n">
-        <v>36.6</v>
+        <v>10.9</v>
       </c>
       <c r="E111" t="n">
-        <v>212493.2</v>
+        <v>166149.6</v>
       </c>
       <c r="F111" t="n">
-        <v>29.7</v>
+        <v>20.5</v>
       </c>
       <c r="G111" t="n">
-        <v>594604.72</v>
+        <v>506708.07</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2009年12月</t>
+          <t>2009-03</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>11.8</v>
+        <v>10.9</v>
       </c>
       <c r="C112" t="n">
-        <v>38246.97</v>
+        <v>33746.42</v>
       </c>
       <c r="D112" t="n">
-        <v>32.4</v>
+        <v>17</v>
       </c>
       <c r="E112" t="n">
-        <v>221445.81</v>
+        <v>176541.13</v>
       </c>
       <c r="F112" t="n">
-        <v>27.7</v>
+        <v>25.5</v>
       </c>
       <c r="G112" t="n">
-        <v>610224.52</v>
+        <v>530626.71</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>2009年1月</t>
+          <t>2009-04</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>12</v>
+        <v>11.3</v>
       </c>
       <c r="C113" t="n">
-        <v>41082.37</v>
+        <v>34257.27</v>
       </c>
       <c r="D113" t="n">
-        <v>6.7</v>
+        <v>17.5</v>
       </c>
       <c r="E113" t="n">
-        <v>165214.34</v>
+        <v>178213.57</v>
       </c>
       <c r="F113" t="n">
-        <v>18.8</v>
+        <v>26</v>
       </c>
       <c r="G113" t="n">
-        <v>496135.31</v>
+        <v>540481.21</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>2009年2月</t>
+          <t>2009-05</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>8.300000000000001</v>
+        <v>11.2</v>
       </c>
       <c r="C114" t="n">
-        <v>35141.64</v>
+        <v>33559.52</v>
       </c>
       <c r="D114" t="n">
-        <v>10.9</v>
+        <v>18.7</v>
       </c>
       <c r="E114" t="n">
-        <v>166149.6</v>
+        <v>182025.58</v>
       </c>
       <c r="F114" t="n">
-        <v>20.5</v>
+        <v>25.7</v>
       </c>
       <c r="G114" t="n">
-        <v>506708.07</v>
+        <v>548263.51</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>2009年3月</t>
+          <t>2009-06</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>10.9</v>
+        <v>11.5</v>
       </c>
       <c r="C115" t="n">
-        <v>33746.42</v>
+        <v>33640.98</v>
       </c>
       <c r="D115" t="n">
-        <v>17</v>
+        <v>24.8</v>
       </c>
       <c r="E115" t="n">
-        <v>176541.13</v>
+        <v>193138.15</v>
       </c>
       <c r="F115" t="n">
-        <v>25.5</v>
+        <v>28.5</v>
       </c>
       <c r="G115" t="n">
-        <v>530626.71</v>
+        <v>568916.2</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>2009年4月</t>
+          <t>2009-07</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>11.3</v>
+        <v>11.6</v>
       </c>
       <c r="C116" t="n">
-        <v>34257.27</v>
+        <v>34239.3</v>
       </c>
       <c r="D116" t="n">
-        <v>17.5</v>
+        <v>26.4</v>
       </c>
       <c r="E116" t="n">
-        <v>178213.57</v>
+        <v>195889.27</v>
       </c>
       <c r="F116" t="n">
-        <v>26</v>
+        <v>28.4</v>
       </c>
       <c r="G116" t="n">
-        <v>540481.21</v>
+        <v>573102.85</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>2009年5月</t>
+          <t>2009-08</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>11.2</v>
+        <v>11.5</v>
       </c>
       <c r="C117" t="n">
-        <v>33559.52</v>
+        <v>34406.62</v>
       </c>
       <c r="D117" t="n">
-        <v>18.7</v>
+        <v>27.7</v>
       </c>
       <c r="E117" t="n">
-        <v>182025.58</v>
+        <v>200394.83</v>
       </c>
       <c r="F117" t="n">
-        <v>25.7</v>
+        <v>28.5</v>
       </c>
       <c r="G117" t="n">
-        <v>548263.51</v>
+        <v>576698.95</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>2009年6月</t>
+          <t>2009-09</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>11.5</v>
+        <v>16</v>
       </c>
       <c r="C118" t="n">
-        <v>33640.98</v>
+        <v>36787.89</v>
       </c>
       <c r="D118" t="n">
-        <v>24.8</v>
+        <v>29.5</v>
       </c>
       <c r="E118" t="n">
-        <v>193138.15</v>
+        <v>201708.14</v>
       </c>
       <c r="F118" t="n">
-        <v>28.5</v>
+        <v>29.3</v>
       </c>
       <c r="G118" t="n">
-        <v>568916.2</v>
+        <v>585405.34</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>2009年7月</t>
+          <t>2009-10</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>11.6</v>
+        <v>14.1</v>
       </c>
       <c r="C119" t="n">
-        <v>34239.3</v>
+        <v>35730.23</v>
       </c>
       <c r="D119" t="n">
-        <v>26.4</v>
+        <v>32</v>
       </c>
       <c r="E119" t="n">
-        <v>195889.27</v>
+        <v>207545.74</v>
       </c>
       <c r="F119" t="n">
-        <v>28.4</v>
+        <v>29.4</v>
       </c>
       <c r="G119" t="n">
-        <v>573102.85</v>
+        <v>586643.29</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>2009年8月</t>
+          <t>2009-11</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="C120" t="n">
-        <v>34406.62</v>
+        <v>36343.86</v>
       </c>
       <c r="D120" t="n">
-        <v>27.7</v>
+        <v>36.6</v>
       </c>
       <c r="E120" t="n">
-        <v>200394.83</v>
+        <v>212493.2</v>
       </c>
       <c r="F120" t="n">
-        <v>28.5</v>
+        <v>29.7</v>
       </c>
       <c r="G120" t="n">
-        <v>576698.95</v>
+        <v>594604.72</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>2009年9月</t>
+          <t>2009-12</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>16</v>
+        <v>11.8</v>
       </c>
       <c r="C121" t="n">
-        <v>36787.89</v>
+        <v>38246.97</v>
       </c>
       <c r="D121" t="n">
-        <v>29.5</v>
+        <v>32.4</v>
       </c>
       <c r="E121" t="n">
-        <v>201708.14</v>
+        <v>221445.81</v>
       </c>
       <c r="F121" t="n">
-        <v>29.3</v>
+        <v>27.7</v>
       </c>
       <c r="G121" t="n">
-        <v>585405.34</v>
+        <v>610224.52</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>2010年10月</t>
+          <t>2010-01</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>16.6</v>
+        <v>-0.8</v>
       </c>
       <c r="C122" t="n">
-        <v>41646.21</v>
+        <v>40758.58</v>
       </c>
       <c r="D122" t="n">
-        <v>22.1</v>
+        <v>39</v>
       </c>
       <c r="E122" t="n">
-        <v>253313.17</v>
+        <v>229588.98</v>
       </c>
       <c r="F122" t="n">
-        <v>19.3</v>
+        <v>26</v>
       </c>
       <c r="G122" t="n">
-        <v>699776.74</v>
+        <v>625609.29</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>2010年11月</t>
+          <t>2010-02</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>16.3</v>
+        <v>22</v>
       </c>
       <c r="C123" t="n">
-        <v>42252.16</v>
+        <v>42865.79</v>
       </c>
       <c r="D123" t="n">
-        <v>22.1</v>
+        <v>35</v>
       </c>
       <c r="E123" t="n">
-        <v>259420.32</v>
+        <v>224286.95</v>
       </c>
       <c r="F123" t="n">
-        <v>19.5</v>
+        <v>25.5</v>
       </c>
       <c r="G123" t="n">
-        <v>710339.03</v>
+        <v>636072.26</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>2010年12月</t>
+          <t>2010-03</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>16.7</v>
+        <v>15.8</v>
       </c>
       <c r="C124" t="n">
-        <v>44628.17</v>
+        <v>39080.58</v>
       </c>
       <c r="D124" t="n">
-        <v>21.2</v>
+        <v>29.9</v>
       </c>
       <c r="E124" t="n">
-        <v>266621.54</v>
+        <v>229397.93</v>
       </c>
       <c r="F124" t="n">
-        <v>19.7</v>
+        <v>22.5</v>
       </c>
       <c r="G124" t="n">
-        <v>725851.79</v>
+        <v>649947.46</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>2010年1月</t>
+          <t>2010-04</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>-0.8</v>
+        <v>15.8</v>
       </c>
       <c r="C125" t="n">
-        <v>40758.58</v>
+        <v>39657.54</v>
       </c>
       <c r="D125" t="n">
-        <v>39</v>
+        <v>31.3</v>
       </c>
       <c r="E125" t="n">
-        <v>229588.98</v>
+        <v>233909.76</v>
       </c>
       <c r="F125" t="n">
-        <v>26</v>
+        <v>21.5</v>
       </c>
       <c r="G125" t="n">
-        <v>625609.29</v>
+        <v>656561.22</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>2010年2月</t>
+          <t>2010-05</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>22</v>
+        <v>15.2</v>
       </c>
       <c r="C126" t="n">
-        <v>42865.79</v>
+        <v>38652.97</v>
       </c>
       <c r="D126" t="n">
-        <v>35</v>
+        <v>29.9</v>
       </c>
       <c r="E126" t="n">
-        <v>224286.95</v>
+        <v>236497.88</v>
       </c>
       <c r="F126" t="n">
-        <v>25.5</v>
+        <v>21</v>
       </c>
       <c r="G126" t="n">
-        <v>636072.26</v>
+        <v>663351.37</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>2010年3月</t>
+          <t>2010-06</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C127" t="n">
-        <v>39080.58</v>
+        <v>38904.85</v>
       </c>
       <c r="D127" t="n">
-        <v>29.9</v>
+        <v>24.6</v>
       </c>
       <c r="E127" t="n">
-        <v>229397.93</v>
+        <v>240580</v>
       </c>
       <c r="F127" t="n">
-        <v>22.5</v>
+        <v>18.5</v>
       </c>
       <c r="G127" t="n">
-        <v>649947.46</v>
+        <v>673921.72</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>2010年4月</t>
+          <t>2010-07</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="C128" t="n">
-        <v>39657.54</v>
+        <v>39543.16</v>
       </c>
       <c r="D128" t="n">
-        <v>31.3</v>
+        <v>22.9</v>
       </c>
       <c r="E128" t="n">
-        <v>233909.76</v>
+        <v>240664.07</v>
       </c>
       <c r="F128" t="n">
-        <v>21.5</v>
+        <v>17.6</v>
       </c>
       <c r="G128" t="n">
-        <v>656561.22</v>
+        <v>674051.48</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>2010年5月</t>
+          <t>2010-08</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>15.2</v>
+        <v>16</v>
       </c>
       <c r="C129" t="n">
-        <v>38652.97</v>
+        <v>39922.76</v>
       </c>
       <c r="D129" t="n">
-        <v>29.9</v>
+        <v>21.9</v>
       </c>
       <c r="E129" t="n">
-        <v>236497.88</v>
+        <v>244340.64</v>
       </c>
       <c r="F129" t="n">
-        <v>21</v>
+        <v>19.2</v>
       </c>
       <c r="G129" t="n">
-        <v>663351.37</v>
+        <v>687506.92</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>2010年6月</t>
+          <t>2010-09</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>15.7</v>
+        <v>13.8</v>
       </c>
       <c r="C130" t="n">
-        <v>38904.85</v>
+        <v>41854.41</v>
       </c>
       <c r="D130" t="n">
-        <v>24.6</v>
+        <v>20.9</v>
       </c>
       <c r="E130" t="n">
-        <v>240580</v>
+        <v>243821.9</v>
       </c>
       <c r="F130" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="G130" t="n">
-        <v>673921.72</v>
+        <v>696471.5</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>2010年7月</t>
+          <t>2010-10</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>15.5</v>
+        <v>16.6</v>
       </c>
       <c r="C131" t="n">
-        <v>39543.16</v>
+        <v>41646.21</v>
       </c>
       <c r="D131" t="n">
-        <v>22.9</v>
+        <v>22.1</v>
       </c>
       <c r="E131" t="n">
-        <v>240664.07</v>
+        <v>253313.17</v>
       </c>
       <c r="F131" t="n">
-        <v>17.6</v>
+        <v>19.3</v>
       </c>
       <c r="G131" t="n">
-        <v>674051.48</v>
+        <v>699776.74</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>2010年8月</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>16</v>
+        <v>16.3</v>
       </c>
       <c r="C132" t="n">
-        <v>39922.76</v>
+        <v>42252.16</v>
       </c>
       <c r="D132" t="n">
-        <v>21.9</v>
+        <v>22.1</v>
       </c>
       <c r="E132" t="n">
-        <v>244340.64</v>
+        <v>259420.32</v>
       </c>
       <c r="F132" t="n">
-        <v>19.2</v>
+        <v>19.5</v>
       </c>
       <c r="G132" t="n">
-        <v>687506.92</v>
+        <v>710339.03</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>2010年9月</t>
+          <t>2010-12</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>13.8</v>
+        <v>16.7</v>
       </c>
       <c r="C133" t="n">
-        <v>41854.41</v>
+        <v>44628.17</v>
       </c>
       <c r="D133" t="n">
-        <v>20.9</v>
+        <v>21.2</v>
       </c>
       <c r="E133" t="n">
-        <v>243821.9</v>
+        <v>266621.54</v>
       </c>
       <c r="F133" t="n">
-        <v>19</v>
+        <v>19.7</v>
       </c>
       <c r="G133" t="n">
-        <v>696471.5</v>
+        <v>725851.79</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>2011年10月</t>
+          <t>2011-01</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>11.9</v>
+        <v>42.5</v>
       </c>
       <c r="C134" t="n">
-        <v>46579.3922340403</v>
+        <v>58063.94</v>
       </c>
       <c r="D134" t="n">
-        <v>8.4</v>
+        <v>13.6</v>
       </c>
       <c r="E134" t="n">
-        <v>276552.671072289</v>
+        <v>261765.01</v>
       </c>
       <c r="F134" t="n">
-        <v>12.9</v>
+        <v>17.2</v>
       </c>
       <c r="G134" t="n">
-        <v>816829.248866791</v>
+        <v>733884.83</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>2011年11月</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>12</v>
+        <v>10.3</v>
       </c>
       <c r="C135" t="n">
-        <v>47317.26</v>
+        <v>47270.24</v>
       </c>
       <c r="D135" t="n">
-        <v>7.8</v>
+        <v>14.5</v>
       </c>
       <c r="E135" t="n">
-        <v>281416.37</v>
+        <v>259200.5</v>
       </c>
       <c r="F135" t="n">
-        <v>12.7</v>
+        <v>15.7</v>
       </c>
       <c r="G135" t="n">
-        <v>825493.9399999999</v>
+        <v>736130.86</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>2011年12月</t>
+          <t>2011-03</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>13.8</v>
+        <v>14.78</v>
       </c>
       <c r="C136" t="n">
-        <v>50748.46</v>
+        <v>44845.22</v>
       </c>
       <c r="D136" t="n">
-        <v>7.9</v>
+        <v>15.01</v>
       </c>
       <c r="E136" t="n">
-        <v>289847.7</v>
+        <v>266255.48</v>
       </c>
       <c r="F136" t="n">
-        <v>13.6</v>
+        <v>16.63</v>
       </c>
       <c r="G136" t="n">
-        <v>851590.9</v>
+        <v>758130.88</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>2011年1月</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>42.5</v>
+        <v>14.7</v>
       </c>
       <c r="C137" t="n">
-        <v>58063.94</v>
+        <v>45489.027960857</v>
       </c>
       <c r="D137" t="n">
-        <v>13.6</v>
+        <v>12.9</v>
       </c>
       <c r="E137" t="n">
-        <v>261765.01</v>
+        <v>266766.914544689</v>
       </c>
       <c r="F137" t="n">
-        <v>17.2</v>
+        <v>15.3</v>
       </c>
       <c r="G137" t="n">
-        <v>733884.83</v>
+        <v>757384.5600000001</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>2011年2月</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>10.3</v>
+        <v>15.4</v>
       </c>
       <c r="C138" t="n">
-        <v>47270.24</v>
+        <v>44602.83</v>
       </c>
       <c r="D138" t="n">
-        <v>14.5</v>
+        <v>12.7</v>
       </c>
       <c r="E138" t="n">
-        <v>259200.5</v>
+        <v>269289.63</v>
       </c>
       <c r="F138" t="n">
-        <v>15.7</v>
+        <v>15.1</v>
       </c>
       <c r="G138" t="n">
-        <v>736130.86</v>
+        <v>763409.22</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>2011年3月</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>14.78</v>
+        <v>14.4</v>
       </c>
       <c r="C139" t="n">
-        <v>44845.22</v>
+        <v>44477.8</v>
       </c>
       <c r="D139" t="n">
-        <v>15.01</v>
+        <v>13.1</v>
       </c>
       <c r="E139" t="n">
-        <v>266255.48</v>
+        <v>274662.57</v>
       </c>
       <c r="F139" t="n">
-        <v>16.63</v>
+        <v>15.9</v>
       </c>
       <c r="G139" t="n">
-        <v>758130.88</v>
+        <v>780820.85</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>2011年4月</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B140" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="C140" t="n">
+        <v>45183.1</v>
+      </c>
+      <c r="D140" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E140" t="n">
+        <v>270545.65</v>
+      </c>
+      <c r="F140" t="n">
         <v>14.7</v>
       </c>
-      <c r="C140" t="n">
-        <v>45489.027960857</v>
-      </c>
-      <c r="D140" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E140" t="n">
-        <v>266766.914544689</v>
-      </c>
-      <c r="F140" t="n">
-        <v>15.3</v>
-      </c>
       <c r="G140" t="n">
-        <v>757384.5600000001</v>
+        <v>772923.65</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>2011年5月</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>15.4</v>
+        <v>14.7</v>
       </c>
       <c r="C141" t="n">
-        <v>44602.83</v>
+        <v>45775.2864933045</v>
       </c>
       <c r="D141" t="n">
-        <v>12.7</v>
+        <v>11.2</v>
       </c>
       <c r="E141" t="n">
-        <v>269289.63</v>
+        <v>273393.77</v>
       </c>
       <c r="F141" t="n">
-        <v>15.1</v>
+        <v>13.6</v>
       </c>
       <c r="G141" t="n">
-        <v>763409.22</v>
+        <v>780852.3</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>2011年6月</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>14.4</v>
+        <v>12.7</v>
       </c>
       <c r="C142" t="n">
-        <v>44477.8</v>
+        <v>47145.2871355369</v>
       </c>
       <c r="D142" t="n">
-        <v>13.1</v>
+        <v>8.9</v>
       </c>
       <c r="E142" t="n">
-        <v>274662.57</v>
+        <v>267193.16</v>
       </c>
       <c r="F142" t="n">
-        <v>15.9</v>
+        <v>13</v>
       </c>
       <c r="G142" t="n">
-        <v>780820.85</v>
+        <v>787406.2</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>2011年7月</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>14.3</v>
+        <v>11.9</v>
       </c>
       <c r="C143" t="n">
-        <v>45183.1</v>
+        <v>46579.3922340403</v>
       </c>
       <c r="D143" t="n">
-        <v>11.6</v>
+        <v>8.4</v>
       </c>
       <c r="E143" t="n">
-        <v>270545.65</v>
+        <v>276552.671072289</v>
       </c>
       <c r="F143" t="n">
-        <v>14.7</v>
+        <v>12.9</v>
       </c>
       <c r="G143" t="n">
-        <v>772923.65</v>
+        <v>816829.248866791</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>2011年8月</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>14.7</v>
+        <v>12</v>
       </c>
       <c r="C144" t="n">
-        <v>45775.2864933045</v>
+        <v>47317.26</v>
       </c>
       <c r="D144" t="n">
-        <v>11.2</v>
+        <v>7.8</v>
       </c>
       <c r="E144" t="n">
-        <v>273393.77</v>
+        <v>281416.37</v>
       </c>
       <c r="F144" t="n">
-        <v>13.6</v>
+        <v>12.7</v>
       </c>
       <c r="G144" t="n">
-        <v>780852.3</v>
+        <v>825493.9399999999</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>2011年9月</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>12.7</v>
+        <v>13.8</v>
       </c>
       <c r="C145" t="n">
-        <v>47145.2871355369</v>
+        <v>50748.46</v>
       </c>
       <c r="D145" t="n">
-        <v>8.9</v>
+        <v>7.9</v>
       </c>
       <c r="E145" t="n">
-        <v>267193.16</v>
+        <v>289847.7</v>
       </c>
       <c r="F145" t="n">
-        <v>13</v>
+        <v>13.6</v>
       </c>
       <c r="G145" t="n">
-        <v>787406.2</v>
+        <v>851590.9</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>2012年10月</t>
+          <t>2012-01</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>10.5</v>
+        <v>3</v>
       </c>
       <c r="C146" t="n">
-        <v>51467.71</v>
+        <v>59820.72</v>
       </c>
       <c r="D146" t="n">
-        <v>6.1</v>
+        <v>3.2</v>
       </c>
       <c r="E146" t="n">
-        <v>293309.78</v>
+        <v>270010.4</v>
       </c>
       <c r="F146" t="n">
-        <v>14.1</v>
+        <v>12.4</v>
       </c>
       <c r="G146" t="n">
-        <v>936404.28</v>
+        <v>855898.89</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>2012年11月</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>10.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C147" t="n">
-        <v>52392.12</v>
+        <v>51448.78</v>
       </c>
       <c r="D147" t="n">
-        <v>5.5</v>
+        <v>4.3</v>
       </c>
       <c r="E147" t="n">
-        <v>296883</v>
+        <v>270312.11</v>
       </c>
       <c r="F147" t="n">
-        <v>13.9</v>
+        <v>13</v>
       </c>
       <c r="G147" t="n">
-        <v>944832.4</v>
+        <v>867171.42</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>2012年12月</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>7.7</v>
+        <v>10.6</v>
       </c>
       <c r="C148" t="n">
-        <v>54659.81</v>
+        <v>49595.74</v>
       </c>
       <c r="D148" t="n">
-        <v>6.5</v>
+        <v>4.4</v>
       </c>
       <c r="E148" t="n">
-        <v>308672.99</v>
+        <v>277998.11</v>
       </c>
       <c r="F148" t="n">
-        <v>13.8</v>
+        <v>13.4</v>
       </c>
       <c r="G148" t="n">
-        <v>974159.46</v>
+        <v>895565.5</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>2012年1月</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>3</v>
+        <v>10.4</v>
       </c>
       <c r="C149" t="n">
-        <v>59820.72</v>
+        <v>50199.32</v>
       </c>
       <c r="D149" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="E149" t="n">
-        <v>270010.4</v>
+        <v>274983.82</v>
       </c>
       <c r="F149" t="n">
-        <v>12.4</v>
+        <v>12.8</v>
       </c>
       <c r="G149" t="n">
-        <v>855898.89</v>
+        <v>889604.04</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>2012年2月</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="C150" t="n">
-        <v>51448.78</v>
+        <v>49039.72</v>
       </c>
       <c r="D150" t="n">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="E150" t="n">
-        <v>270312.11</v>
+        <v>278656.31</v>
       </c>
       <c r="F150" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="G150" t="n">
-        <v>867171.42</v>
+        <v>900048.77</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>2012年3月</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>10.6</v>
+        <v>10.81</v>
       </c>
       <c r="C151" t="n">
-        <v>49595.74</v>
+        <v>49284.64</v>
       </c>
       <c r="D151" t="n">
-        <v>4.4</v>
+        <v>4.68</v>
       </c>
       <c r="E151" t="n">
-        <v>277998.11</v>
+        <v>287526.17</v>
       </c>
       <c r="F151" t="n">
-        <v>13.4</v>
+        <v>13.64</v>
       </c>
       <c r="G151" t="n">
-        <v>895565.5</v>
+        <v>924991.2</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>2012年4月</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>10.4</v>
+        <v>10</v>
       </c>
       <c r="C152" t="n">
-        <v>50199.32</v>
+        <v>49705.8477895384</v>
       </c>
       <c r="D152" t="n">
-        <v>3.1</v>
+        <v>4.6</v>
       </c>
       <c r="E152" t="n">
-        <v>274983.82</v>
+        <v>283090.680892102</v>
       </c>
       <c r="F152" t="n">
-        <v>12.8</v>
+        <v>13.9</v>
       </c>
       <c r="G152" t="n">
-        <v>889604.04</v>
+        <v>919072.4</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>2012年5月</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>10</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C153" t="n">
-        <v>49039.72</v>
+        <v>50235.06</v>
       </c>
       <c r="D153" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="E153" t="n">
-        <v>278656.31</v>
+        <v>285739.27</v>
       </c>
       <c r="F153" t="n">
-        <v>13.2</v>
+        <v>13.5</v>
       </c>
       <c r="G153" t="n">
-        <v>900048.77</v>
+        <v>924894.59</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>2012年6月</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>10.81</v>
+        <v>13.3</v>
       </c>
       <c r="C154" t="n">
-        <v>49284.64</v>
+        <v>53433.49</v>
       </c>
       <c r="D154" t="n">
-        <v>4.68</v>
+        <v>7.3</v>
       </c>
       <c r="E154" t="n">
-        <v>287526.17</v>
+        <v>286788.206056132</v>
       </c>
       <c r="F154" t="n">
-        <v>13.64</v>
+        <v>14.8</v>
       </c>
       <c r="G154" t="n">
-        <v>924991.2</v>
+        <v>943688.75</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>2012年7月</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="C155" t="n">
-        <v>49705.8477895384</v>
+        <v>51467.71</v>
       </c>
       <c r="D155" t="n">
-        <v>4.6</v>
+        <v>6.1</v>
       </c>
       <c r="E155" t="n">
-        <v>283090.680892102</v>
+        <v>293309.78</v>
       </c>
       <c r="F155" t="n">
-        <v>13.9</v>
+        <v>14.1</v>
       </c>
       <c r="G155" t="n">
-        <v>919072.4</v>
+        <v>936404.28</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>2012年8月</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>9.699999999999999</v>
+        <v>10.7</v>
       </c>
       <c r="C156" t="n">
-        <v>50235.06</v>
+        <v>52392.12</v>
       </c>
       <c r="D156" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="E156" t="n">
-        <v>285739.27</v>
+        <v>296883</v>
       </c>
       <c r="F156" t="n">
-        <v>13.5</v>
+        <v>13.9</v>
       </c>
       <c r="G156" t="n">
-        <v>924894.59</v>
+        <v>944832.4</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>2012年9月</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>13.3</v>
+        <v>7.7</v>
       </c>
       <c r="C157" t="n">
-        <v>53433.49</v>
+        <v>54659.81</v>
       </c>
       <c r="D157" t="n">
-        <v>7.3</v>
+        <v>6.5</v>
       </c>
       <c r="E157" t="n">
-        <v>286788.206056132</v>
+        <v>308672.99</v>
       </c>
       <c r="F157" t="n">
-        <v>14.8</v>
+        <v>13.8</v>
       </c>
       <c r="G157" t="n">
-        <v>943688.75</v>
+        <v>974159.46</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>2013年10月</t>
+          <t>2013-01</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>8</v>
+        <v>4.4</v>
       </c>
       <c r="C158" t="n">
-        <v>55595.72</v>
+        <v>62449.63</v>
       </c>
       <c r="D158" t="n">
-        <v>8.9</v>
+        <v>15.3</v>
       </c>
       <c r="E158" t="n">
-        <v>319509.379969899</v>
+        <v>311228.55</v>
       </c>
       <c r="F158" t="n">
-        <v>14.3</v>
+        <v>15.9</v>
       </c>
       <c r="G158" t="n">
-        <v>1070242.16664233</v>
+        <v>992129.25</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>2013年11月</t>
+          <t>2013-02</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>7.7</v>
+        <v>17.2</v>
       </c>
       <c r="C159" t="n">
-        <v>56441.2723830122</v>
+        <v>60313.65</v>
       </c>
       <c r="D159" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="E159" t="n">
-        <v>324821.922752422</v>
+        <v>296103.24</v>
       </c>
       <c r="F159" t="n">
-        <v>14.2</v>
+        <v>15.2</v>
       </c>
       <c r="G159" t="n">
-        <v>1079257.05547773</v>
+        <v>998600.83</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>2013年12月</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>7.1</v>
+        <v>11.8</v>
       </c>
       <c r="C160" t="n">
-        <v>58574.44</v>
+        <v>55460.52</v>
       </c>
       <c r="D160" t="n">
-        <v>9.300000000000001</v>
+        <v>11.8</v>
       </c>
       <c r="E160" t="n">
-        <v>337291.05</v>
+        <v>310898.29</v>
       </c>
       <c r="F160" t="n">
-        <v>13.6</v>
+        <v>15.7</v>
       </c>
       <c r="G160" t="n">
-        <v>1106524.98</v>
+        <v>1035858.37</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>2013年1月</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>4.4</v>
+        <v>10.8</v>
       </c>
       <c r="C161" t="n">
-        <v>62449.63</v>
+        <v>55607.1512345666</v>
       </c>
       <c r="D161" t="n">
-        <v>15.3</v>
+        <v>11.9</v>
       </c>
       <c r="E161" t="n">
-        <v>311228.55</v>
+        <v>307648.42</v>
       </c>
       <c r="F161" t="n">
-        <v>15.9</v>
+        <v>16.1</v>
       </c>
       <c r="G161" t="n">
-        <v>992129.25</v>
+        <v>1032551.9</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>2013年2月</t>
+          <t>2013-05</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>17.2</v>
+        <v>11</v>
       </c>
       <c r="C162" t="n">
-        <v>60313.65</v>
+        <v>54431.39</v>
       </c>
       <c r="D162" t="n">
-        <v>9.5</v>
+        <v>11.3</v>
       </c>
       <c r="E162" t="n">
-        <v>296103.24</v>
+        <v>310204.48</v>
       </c>
       <c r="F162" t="n">
-        <v>15.2</v>
+        <v>15.8</v>
       </c>
       <c r="G162" t="n">
-        <v>998600.83</v>
+        <v>1042169.16</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>2013年3月</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>11.8</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C163" t="n">
-        <v>55460.52</v>
+        <v>54063.91</v>
       </c>
       <c r="D163" t="n">
-        <v>11.8</v>
+        <v>9</v>
       </c>
       <c r="E163" t="n">
-        <v>310898.29</v>
+        <v>313499.82</v>
       </c>
       <c r="F163" t="n">
-        <v>15.7</v>
+        <v>14</v>
       </c>
       <c r="G163" t="n">
-        <v>1035858.37</v>
+        <v>1054403.69</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>2013年4月</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>10.8</v>
+        <v>9.5</v>
       </c>
       <c r="C164" t="n">
-        <v>55607.1512345666</v>
+        <v>54412.78</v>
       </c>
       <c r="D164" t="n">
-        <v>11.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E164" t="n">
-        <v>307648.42</v>
+        <v>310596.46</v>
       </c>
       <c r="F164" t="n">
-        <v>16.1</v>
+        <v>14.5</v>
       </c>
       <c r="G164" t="n">
-        <v>1032551.9</v>
+        <v>1052212.34</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>2013年5月</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>11</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C165" t="n">
-        <v>54431.39</v>
+        <v>54925.35</v>
       </c>
       <c r="D165" t="n">
-        <v>11.3</v>
+        <v>9.9</v>
       </c>
       <c r="E165" t="n">
-        <v>310204.48</v>
+        <v>314085.91</v>
       </c>
       <c r="F165" t="n">
-        <v>15.8</v>
+        <v>14.7</v>
       </c>
       <c r="G165" t="n">
-        <v>1042169.16</v>
+        <v>1061256.43</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>2013年6月</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>9.699999999999999</v>
+        <v>5.7</v>
       </c>
       <c r="C166" t="n">
-        <v>54063.91</v>
+        <v>56492.5311222907</v>
       </c>
       <c r="D166" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="E166" t="n">
-        <v>313499.82</v>
+        <v>312330.343310229</v>
       </c>
       <c r="F166" t="n">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="G166" t="n">
-        <v>1054403.69</v>
+        <v>1077379.16304772</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>2013年7月</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="C167" t="n">
-        <v>54412.78</v>
+        <v>55595.72</v>
       </c>
       <c r="D167" t="n">
-        <v>9.699999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="E167" t="n">
-        <v>310596.46</v>
+        <v>319509.379969899</v>
       </c>
       <c r="F167" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="G167" t="n">
-        <v>1052212.34</v>
+        <v>1070242.16664233</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>2013年8月</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>9.300000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="C168" t="n">
-        <v>54925.35</v>
+        <v>56441.2723830122</v>
       </c>
       <c r="D168" t="n">
-        <v>9.9</v>
+        <v>9.4</v>
       </c>
       <c r="E168" t="n">
-        <v>314085.91</v>
+        <v>324821.922752422</v>
       </c>
       <c r="F168" t="n">
-        <v>14.7</v>
+        <v>14.2</v>
       </c>
       <c r="G168" t="n">
-        <v>1061256.43</v>
+        <v>1079257.05547773</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>2013年9月</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>5.7</v>
+        <v>7.1</v>
       </c>
       <c r="C169" t="n">
-        <v>56492.5311222907</v>
+        <v>58574.44</v>
       </c>
       <c r="D169" t="n">
-        <v>8.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="E169" t="n">
-        <v>312330.343310229</v>
+        <v>337291.05</v>
       </c>
       <c r="F169" t="n">
-        <v>14.2</v>
+        <v>13.6</v>
       </c>
       <c r="G169" t="n">
-        <v>1077379.16304772</v>
+        <v>1106524.98</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>2014年10月</t>
+          <t>2014-01</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>3.8</v>
+        <v>22.5</v>
       </c>
       <c r="C170" t="n">
-        <v>57691.6376435076</v>
+        <v>76488.5952282997</v>
       </c>
       <c r="D170" t="n">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="E170" t="n">
-        <v>329617.732083858</v>
+        <v>314900.552485305</v>
       </c>
       <c r="F170" t="n">
-        <v>12.6</v>
+        <v>13.2</v>
       </c>
       <c r="G170" t="n">
-        <v>1199236.31381594</v>
+        <v>1123521.209563</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>2014年11月</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="C171" t="n">
-        <v>58438.53</v>
+        <v>62320.95</v>
       </c>
       <c r="D171" t="n">
-        <v>3.2</v>
+        <v>6.9</v>
       </c>
       <c r="E171" t="n">
-        <v>335114.13</v>
+        <v>316625.11</v>
       </c>
       <c r="F171" t="n">
-        <v>12.3</v>
+        <v>13.3</v>
       </c>
       <c r="G171" t="n">
-        <v>1208605.95</v>
+        <v>1131760.83</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>2014年12月</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>2.9</v>
+        <v>5.2</v>
       </c>
       <c r="C172" t="n">
-        <v>60259.5288406265</v>
+        <v>58329.3</v>
       </c>
       <c r="D172" t="n">
-        <v>3.2</v>
+        <v>5.4</v>
       </c>
       <c r="E172" t="n">
-        <v>348056.408948037</v>
+        <v>327683.74</v>
       </c>
       <c r="F172" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="G172" t="n">
-        <v>1228374.80654446</v>
+        <v>1160687.38</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>2014年1月</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>22.5</v>
+        <v>5.4</v>
       </c>
       <c r="C173" t="n">
-        <v>76488.5952282997</v>
+        <v>58615.54</v>
       </c>
       <c r="D173" t="n">
-        <v>1.2</v>
+        <v>5.5</v>
       </c>
       <c r="E173" t="n">
-        <v>314900.552485305</v>
+        <v>324482.52</v>
       </c>
       <c r="F173" t="n">
         <v>13.2</v>
       </c>
       <c r="G173" t="n">
-        <v>1123521.209563</v>
+        <v>1168812.67</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>2014年2月</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>3.3</v>
+        <v>6.7</v>
       </c>
       <c r="C174" t="n">
-        <v>62320.95</v>
+        <v>58051.11</v>
       </c>
       <c r="D174" t="n">
-        <v>6.9</v>
+        <v>5.7</v>
       </c>
       <c r="E174" t="n">
-        <v>316625.11</v>
+        <v>327839.56</v>
       </c>
       <c r="F174" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="G174" t="n">
-        <v>1131760.83</v>
+        <v>1182293.96</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>2014年3月</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="C175" t="n">
-        <v>58329.3</v>
+        <v>56951.05</v>
       </c>
       <c r="D175" t="n">
-        <v>5.4</v>
+        <v>8.9</v>
       </c>
       <c r="E175" t="n">
-        <v>327683.74</v>
+        <v>341487.45</v>
       </c>
       <c r="F175" t="n">
-        <v>12.1</v>
+        <v>14.7</v>
       </c>
       <c r="G175" t="n">
-        <v>1160687.38</v>
+        <v>1209587.2</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>2014年4月</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B176" t="n">
         <v>5.4</v>
       </c>
       <c r="C176" t="n">
-        <v>58615.54</v>
+        <v>57346.5</v>
       </c>
       <c r="D176" t="n">
-        <v>5.5</v>
+        <v>6.7</v>
       </c>
       <c r="E176" t="n">
-        <v>324482.52</v>
+        <v>331347.32</v>
       </c>
       <c r="F176" t="n">
-        <v>13.2</v>
+        <v>13.5</v>
       </c>
       <c r="G176" t="n">
-        <v>1168812.67</v>
+        <v>1194249.24</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>2014年5月</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>6.7</v>
+        <v>5.6</v>
       </c>
       <c r="C177" t="n">
-        <v>58051.11</v>
+        <v>57997.61</v>
       </c>
       <c r="D177" t="n">
         <v>5.7</v>
       </c>
       <c r="E177" t="n">
-        <v>327839.56</v>
+        <v>332023.23</v>
       </c>
       <c r="F177" t="n">
-        <v>13.4</v>
+        <v>12.8</v>
       </c>
       <c r="G177" t="n">
-        <v>1182293.96</v>
+        <v>1197499.08</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>2014年6月</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>5.3</v>
+        <v>4.2</v>
       </c>
       <c r="C178" t="n">
-        <v>56951.05</v>
+        <v>58844.99</v>
       </c>
       <c r="D178" t="n">
-        <v>8.9</v>
+        <v>4.8</v>
       </c>
       <c r="E178" t="n">
-        <v>341487.45</v>
+        <v>327220.21</v>
       </c>
       <c r="F178" t="n">
-        <v>14.7</v>
+        <v>12.9</v>
       </c>
       <c r="G178" t="n">
-        <v>1209587.2</v>
+        <v>1202051.41</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>2014年7月</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>5.4</v>
+        <v>3.8</v>
       </c>
       <c r="C179" t="n">
-        <v>57346.5</v>
+        <v>57691.6376435076</v>
       </c>
       <c r="D179" t="n">
-        <v>6.7</v>
+        <v>3.2</v>
       </c>
       <c r="E179" t="n">
-        <v>331347.32</v>
+        <v>329617.732083858</v>
       </c>
       <c r="F179" t="n">
-        <v>13.5</v>
+        <v>12.6</v>
       </c>
       <c r="G179" t="n">
-        <v>1194249.24</v>
+        <v>1199236.31381594</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>2014年8月</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>5.6</v>
+        <v>3.5</v>
       </c>
       <c r="C180" t="n">
-        <v>57997.61</v>
+        <v>58438.53</v>
       </c>
       <c r="D180" t="n">
-        <v>5.7</v>
+        <v>3.2</v>
       </c>
       <c r="E180" t="n">
-        <v>332023.23</v>
+        <v>335114.13</v>
       </c>
       <c r="F180" t="n">
-        <v>12.8</v>
+        <v>12.3</v>
       </c>
       <c r="G180" t="n">
-        <v>1197499.08</v>
+        <v>1208605.95</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>2014年9月</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="C181" t="n">
-        <v>58844.99</v>
+        <v>60259.5288406265</v>
       </c>
       <c r="D181" t="n">
-        <v>4.8</v>
+        <v>3.2</v>
       </c>
       <c r="E181" t="n">
-        <v>327220.21</v>
+        <v>348056.408948037</v>
       </c>
       <c r="F181" t="n">
-        <v>12.9</v>
+        <v>12.2</v>
       </c>
       <c r="G181" t="n">
-        <v>1202051.41</v>
+        <v>1228374.80654446</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>2015年10月</t>
+          <t>2015-01</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>3.8</v>
+        <v>-17.6</v>
       </c>
       <c r="C182" t="n">
-        <v>59900.4753508375</v>
+        <v>63040.5067311397</v>
       </c>
       <c r="D182" t="n">
-        <v>14</v>
+        <v>10.6</v>
       </c>
       <c r="E182" t="n">
-        <v>375806.449677085</v>
+        <v>348109.502246194</v>
       </c>
       <c r="F182" t="n">
-        <v>13.5</v>
+        <v>10.8</v>
       </c>
       <c r="G182" t="n">
-        <v>1361020.70462698</v>
+        <v>1242710.2185386</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>2015年11月</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>3.2</v>
+        <v>17</v>
       </c>
       <c r="C183" t="n">
-        <v>60328.24</v>
+        <v>72896.1934842638</v>
       </c>
       <c r="D183" t="n">
-        <v>15.7</v>
+        <v>5.6</v>
       </c>
       <c r="E183" t="n">
-        <v>387618.32</v>
+        <v>334439.222672921</v>
       </c>
       <c r="F183" t="n">
-        <v>13.7</v>
+        <v>12.5</v>
       </c>
       <c r="G183" t="n">
-        <v>1373956.01</v>
+        <v>1257380.4784755</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>2015年12月</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>4.9</v>
+        <v>6.2</v>
       </c>
       <c r="C184" t="n">
-        <v>63216.5779701258</v>
+        <v>61949.81</v>
       </c>
       <c r="D184" t="n">
-        <v>15.2</v>
+        <v>2.9</v>
       </c>
       <c r="E184" t="n">
-        <v>400953.4400483</v>
+        <v>337210.52</v>
       </c>
       <c r="F184" t="n">
-        <v>13.3</v>
+        <v>11.6</v>
       </c>
       <c r="G184" t="n">
-        <v>1392278.10919881</v>
+        <v>1275332.78</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>2015年1月</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>-17.6</v>
+        <v>3.7</v>
       </c>
       <c r="C185" t="n">
-        <v>63040.5067311397</v>
+        <v>60772.46</v>
       </c>
       <c r="D185" t="n">
-        <v>10.6</v>
+        <v>3.7</v>
       </c>
       <c r="E185" t="n">
-        <v>348109.502246194</v>
+        <v>336388.24</v>
       </c>
       <c r="F185" t="n">
-        <v>10.8</v>
+        <v>10.1</v>
       </c>
       <c r="G185" t="n">
-        <v>1242710.2185386</v>
+        <v>1280779.14</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>2015年2月</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>17</v>
+        <v>1.8</v>
       </c>
       <c r="C186" t="n">
-        <v>72896.1934842638</v>
+        <v>59075.97</v>
       </c>
       <c r="D186" t="n">
-        <v>5.6</v>
+        <v>4.7</v>
       </c>
       <c r="E186" t="n">
-        <v>334439.222672921</v>
+        <v>343085.86</v>
       </c>
       <c r="F186" t="n">
-        <v>12.5</v>
+        <v>10.8</v>
       </c>
       <c r="G186" t="n">
-        <v>1257380.4784755</v>
+        <v>1307357.63</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>2015年3月</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>6.2</v>
+        <v>2.9</v>
       </c>
       <c r="C187" t="n">
-        <v>61949.81</v>
+        <v>58604.2643447653</v>
       </c>
       <c r="D187" t="n">
-        <v>2.9</v>
+        <v>4.3</v>
       </c>
       <c r="E187" t="n">
-        <v>337210.52</v>
+        <v>356082.85545863</v>
       </c>
       <c r="F187" t="n">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="G187" t="n">
-        <v>1275332.78</v>
+        <v>1333375.36453853</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>2015年4月</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="C188" t="n">
-        <v>60772.46</v>
+        <v>59010.7076885211</v>
       </c>
       <c r="D188" t="n">
-        <v>3.7</v>
+        <v>6.6</v>
       </c>
       <c r="E188" t="n">
-        <v>336388.24</v>
+        <v>353122.193829435</v>
       </c>
       <c r="F188" t="n">
-        <v>10.1</v>
+        <v>13.3</v>
       </c>
       <c r="G188" t="n">
-        <v>1280779.14</v>
+        <v>1353210.92482599</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>2015年5月</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B189" t="n">
         <v>1.8</v>
       </c>
       <c r="C189" t="n">
-        <v>59075.97</v>
+        <v>59061.79</v>
       </c>
       <c r="D189" t="n">
-        <v>4.7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="E189" t="n">
-        <v>343085.86</v>
+        <v>362793.73</v>
       </c>
       <c r="F189" t="n">
-        <v>10.8</v>
+        <v>13.3</v>
       </c>
       <c r="G189" t="n">
-        <v>1307357.63</v>
+        <v>1356907.98</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>2015年6月</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="C190" t="n">
-        <v>58604.2643447653</v>
+        <v>61022.97</v>
       </c>
       <c r="D190" t="n">
-        <v>4.3</v>
+        <v>11.4</v>
       </c>
       <c r="E190" t="n">
-        <v>356082.85545863</v>
+        <v>364416.9</v>
       </c>
       <c r="F190" t="n">
-        <v>11.8</v>
+        <v>13.1</v>
       </c>
       <c r="G190" t="n">
-        <v>1333375.36453853</v>
+        <v>1359824.06</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>2015年7月</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="C191" t="n">
-        <v>59010.7076885211</v>
+        <v>59900.4753508375</v>
       </c>
       <c r="D191" t="n">
-        <v>6.6</v>
+        <v>14</v>
       </c>
       <c r="E191" t="n">
-        <v>353122.193829435</v>
+        <v>375806.449677085</v>
       </c>
       <c r="F191" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="G191" t="n">
-        <v>1353210.92482599</v>
+        <v>1361020.70462698</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>2015年8月</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="C192" t="n">
-        <v>59061.79</v>
+        <v>60328.24</v>
       </c>
       <c r="D192" t="n">
-        <v>9.300000000000001</v>
+        <v>15.7</v>
       </c>
       <c r="E192" t="n">
-        <v>362793.73</v>
+        <v>387618.32</v>
       </c>
       <c r="F192" t="n">
-        <v>13.3</v>
+        <v>13.7</v>
       </c>
       <c r="G192" t="n">
-        <v>1356907.98</v>
+        <v>1373956.01</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>2015年9月</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>3.7</v>
+        <v>4.9</v>
       </c>
       <c r="C193" t="n">
-        <v>61022.97</v>
+        <v>63216.5779701258</v>
       </c>
       <c r="D193" t="n">
-        <v>11.4</v>
+        <v>15.2</v>
       </c>
       <c r="E193" t="n">
-        <v>364416.9</v>
+        <v>400953.4400483</v>
       </c>
       <c r="F193" t="n">
-        <v>13.1</v>
+        <v>13.3</v>
       </c>
       <c r="G193" t="n">
-        <v>1359824.06</v>
+        <v>1392278.10919881</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>2016年10月</t>
+          <t>2016-01</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>7.2</v>
+        <v>15.1</v>
       </c>
       <c r="C194" t="n">
-        <v>64214.93</v>
+        <v>72526.50999999999</v>
       </c>
       <c r="D194" t="n">
-        <v>23.9</v>
+        <v>18.6</v>
       </c>
       <c r="E194" t="n">
-        <v>465446.65</v>
+        <v>412685.64</v>
       </c>
       <c r="F194" t="n">
-        <v>11.6</v>
+        <v>14</v>
       </c>
       <c r="G194" t="n">
-        <v>1519485.4</v>
+        <v>1416319.55</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>2016年11月</t>
+          <t>2016-02</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>7.6</v>
+        <v>-4.8</v>
       </c>
       <c r="C195" t="n">
-        <v>64903.5</v>
+        <v>69421.4953555438</v>
       </c>
       <c r="D195" t="n">
-        <v>22.7</v>
+        <v>17.4</v>
       </c>
       <c r="E195" t="n">
-        <v>475405.54</v>
+        <v>392504.696349767</v>
       </c>
       <c r="F195" t="n">
-        <v>11.4</v>
+        <v>13.3</v>
       </c>
       <c r="G195" t="n">
-        <v>1530432.06</v>
+        <v>1424618.67792204</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>2016年12月</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>8.1</v>
+        <v>4.4</v>
       </c>
       <c r="C196" t="n">
-        <v>68303.8678027842</v>
+        <v>64651.21</v>
       </c>
       <c r="D196" t="n">
-        <v>21.4</v>
+        <v>22.1</v>
       </c>
       <c r="E196" t="n">
-        <v>486557.237370892</v>
+        <v>411581.31</v>
       </c>
       <c r="F196" t="n">
-        <v>11.3</v>
+        <v>13.4</v>
       </c>
       <c r="G196" t="n">
-        <v>1550066.66781086</v>
+        <v>1446198.03</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>2016年1月</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>15.1</v>
+        <v>6</v>
       </c>
       <c r="C197" t="n">
-        <v>72526.50999999999</v>
+        <v>64403.17</v>
       </c>
       <c r="D197" t="n">
-        <v>18.6</v>
+        <v>22.9</v>
       </c>
       <c r="E197" t="n">
-        <v>412685.64</v>
+        <v>413504.84</v>
       </c>
       <c r="F197" t="n">
-        <v>14</v>
+        <v>12.8</v>
       </c>
       <c r="G197" t="n">
-        <v>1416319.55</v>
+        <v>1445209.59</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>2016年2月</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>-4.8</v>
+        <v>6.3</v>
       </c>
       <c r="C198" t="n">
-        <v>69421.4953555438</v>
+        <v>62780.71</v>
       </c>
       <c r="D198" t="n">
-        <v>17.4</v>
+        <v>23.7</v>
       </c>
       <c r="E198" t="n">
-        <v>392504.696349767</v>
+        <v>424250.7</v>
       </c>
       <c r="F198" t="n">
-        <v>13.3</v>
+        <v>11.8</v>
       </c>
       <c r="G198" t="n">
-        <v>1424618.67792204</v>
+        <v>1461695.11</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>2016年3月</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>4.4</v>
+        <v>7.2</v>
       </c>
       <c r="C199" t="n">
-        <v>64651.21</v>
+        <v>62818.89</v>
       </c>
       <c r="D199" t="n">
-        <v>22.1</v>
+        <v>24.6</v>
       </c>
       <c r="E199" t="n">
-        <v>411581.31</v>
+        <v>443643.7</v>
       </c>
       <c r="F199" t="n">
-        <v>13.4</v>
+        <v>11.8</v>
       </c>
       <c r="G199" t="n">
-        <v>1446198.03</v>
+        <v>1490491.83</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>2016年4月</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>6</v>
+        <v>7.2</v>
       </c>
       <c r="C200" t="n">
-        <v>64403.17</v>
+        <v>63276.01</v>
       </c>
       <c r="D200" t="n">
-        <v>22.9</v>
+        <v>25.4</v>
       </c>
       <c r="E200" t="n">
-        <v>413504.84</v>
+        <v>442934.43</v>
       </c>
       <c r="F200" t="n">
-        <v>12.8</v>
+        <v>10.2</v>
       </c>
       <c r="G200" t="n">
-        <v>1445209.59</v>
+        <v>1491558.72</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>2016年5月</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>6.3</v>
+        <v>7.4</v>
       </c>
       <c r="C201" t="n">
-        <v>62780.71</v>
+        <v>63454.7</v>
       </c>
       <c r="D201" t="n">
-        <v>23.7</v>
+        <v>25.3</v>
       </c>
       <c r="E201" t="n">
-        <v>424250.7</v>
+        <v>454543.6</v>
       </c>
       <c r="F201" t="n">
-        <v>11.8</v>
+        <v>11.4</v>
       </c>
       <c r="G201" t="n">
-        <v>1461695.11</v>
+        <v>1510982.91</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>2016年6月</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="C202" t="n">
-        <v>62818.89</v>
+        <v>65068.62</v>
       </c>
       <c r="D202" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="E202" t="n">
-        <v>443643.7</v>
+        <v>454340.25</v>
       </c>
       <c r="F202" t="n">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
       <c r="G202" t="n">
-        <v>1490491.83</v>
+        <v>1516360.5</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>2016年7月</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B203" t="n">
         <v>7.2</v>
       </c>
       <c r="C203" t="n">
-        <v>63276.01</v>
+        <v>64214.93</v>
       </c>
       <c r="D203" t="n">
-        <v>25.4</v>
+        <v>23.9</v>
       </c>
       <c r="E203" t="n">
-        <v>442934.43</v>
+        <v>465446.65</v>
       </c>
       <c r="F203" t="n">
-        <v>10.2</v>
+        <v>11.6</v>
       </c>
       <c r="G203" t="n">
-        <v>1491558.72</v>
+        <v>1519485.4</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>2016年8月</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="C204" t="n">
-        <v>63454.7</v>
+        <v>64903.5</v>
       </c>
       <c r="D204" t="n">
-        <v>25.3</v>
+        <v>22.7</v>
       </c>
       <c r="E204" t="n">
-        <v>454543.6</v>
+        <v>475405.54</v>
       </c>
       <c r="F204" t="n">
         <v>11.4</v>
       </c>
       <c r="G204" t="n">
-        <v>1510982.91</v>
+        <v>1530432.06</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>2016年9月</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>6.6</v>
+        <v>8.1</v>
       </c>
       <c r="C205" t="n">
-        <v>65068.62</v>
+        <v>68303.8678027842</v>
       </c>
       <c r="D205" t="n">
-        <v>24.7</v>
+        <v>21.4</v>
       </c>
       <c r="E205" t="n">
-        <v>454340.25</v>
+        <v>486557.237370892</v>
       </c>
       <c r="F205" t="n">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
       <c r="G205" t="n">
-        <v>1516360.5</v>
+        <v>1550066.66781086</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>2017年10月</t>
+          <t>2017-01</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>6.3</v>
+        <v>19.4</v>
       </c>
       <c r="C206" t="n">
-        <v>68230.69</v>
+        <v>86598.61</v>
       </c>
       <c r="D206" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="E206" t="n">
-        <v>525977.1899999999</v>
+        <v>472526.45</v>
       </c>
       <c r="F206" t="n">
-        <v>8.800000000000001</v>
+        <v>11.3</v>
       </c>
       <c r="G206" t="n">
-        <v>1653434.16</v>
+        <v>1575945.59</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>2017年11月</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>5.7</v>
+        <v>3.3</v>
       </c>
       <c r="C207" t="n">
-        <v>68623.16</v>
+        <v>71727.69</v>
       </c>
       <c r="D207" t="n">
-        <v>12.7</v>
+        <v>21.4</v>
       </c>
       <c r="E207" t="n">
-        <v>535565.05</v>
+        <v>476527.6</v>
       </c>
       <c r="F207" t="n">
-        <v>9.1</v>
+        <v>11.1</v>
       </c>
       <c r="G207" t="n">
-        <v>1670013.4</v>
+        <v>1582913.07</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>2017年12月</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>3.4</v>
+        <v>6.1</v>
       </c>
       <c r="C208" t="n">
-        <v>70645.60000000001</v>
+        <v>68605.05</v>
       </c>
       <c r="D208" t="n">
-        <v>11.8</v>
+        <v>18.8</v>
       </c>
       <c r="E208" t="n">
-        <v>543790.15</v>
+        <v>488770.09</v>
       </c>
       <c r="F208" t="n">
-        <v>8.199999999999999</v>
+        <v>10.6</v>
       </c>
       <c r="G208" t="n">
-        <v>1676768.54</v>
+        <v>1599609.57</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>2017年1月</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>19.4</v>
+        <v>6.2</v>
       </c>
       <c r="C209" t="n">
-        <v>86598.61</v>
+        <v>68392.60000000001</v>
       </c>
       <c r="D209" t="n">
-        <v>14.5</v>
+        <v>18.5</v>
       </c>
       <c r="E209" t="n">
-        <v>472526.45</v>
+        <v>490180.42</v>
       </c>
       <c r="F209" t="n">
-        <v>11.3</v>
+        <v>10.5</v>
       </c>
       <c r="G209" t="n">
-        <v>1575945.59</v>
+        <v>1596331.87</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>2017年2月</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>3.3</v>
+        <v>7.3</v>
       </c>
       <c r="C210" t="n">
-        <v>71727.69</v>
+        <v>67333.21000000001</v>
       </c>
       <c r="D210" t="n">
-        <v>21.4</v>
+        <v>17</v>
       </c>
       <c r="E210" t="n">
-        <v>476527.6</v>
+        <v>496389.78</v>
       </c>
       <c r="F210" t="n">
-        <v>11.1</v>
+        <v>9.6</v>
       </c>
       <c r="G210" t="n">
-        <v>1582913.07</v>
+        <v>1601360.42</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>2017年3月</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>6.1</v>
+        <v>6.6</v>
       </c>
       <c r="C211" t="n">
-        <v>68605.05</v>
+        <v>66977.67999999999</v>
       </c>
       <c r="D211" t="n">
-        <v>18.8</v>
+        <v>15</v>
       </c>
       <c r="E211" t="n">
-        <v>488770.09</v>
+        <v>510228.17</v>
       </c>
       <c r="F211" t="n">
-        <v>10.6</v>
+        <v>9.4</v>
       </c>
       <c r="G211" t="n">
-        <v>1599609.57</v>
+        <v>1631282.53</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>2017年4月</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="C212" t="n">
-        <v>68392.60000000001</v>
+        <v>67129.03999999999</v>
       </c>
       <c r="D212" t="n">
-        <v>18.5</v>
+        <v>15.3</v>
       </c>
       <c r="E212" t="n">
-        <v>490180.42</v>
+        <v>510484.58</v>
       </c>
       <c r="F212" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G212" t="n">
-        <v>1596331.87</v>
+        <v>1628996.63</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>2017年5月</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>7.3</v>
+        <v>6.5</v>
       </c>
       <c r="C213" t="n">
-        <v>67333.21000000001</v>
+        <v>67550.99000000001</v>
       </c>
       <c r="D213" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E213" t="n">
-        <v>496389.78</v>
+        <v>518113.93</v>
       </c>
       <c r="F213" t="n">
-        <v>9.6</v>
+        <v>8.9</v>
       </c>
       <c r="G213" t="n">
-        <v>1601360.42</v>
+        <v>1645156.6</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>2017年6月</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="C214" t="n">
-        <v>66977.67999999999</v>
+        <v>69748.53999999999</v>
       </c>
       <c r="D214" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E214" t="n">
-        <v>510228.17</v>
+        <v>517863.04</v>
       </c>
       <c r="F214" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G214" t="n">
-        <v>1631282.53</v>
+        <v>1655662.07</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>2017年7月</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="C215" t="n">
-        <v>67129.03999999999</v>
+        <v>68230.69</v>
       </c>
       <c r="D215" t="n">
-        <v>15.3</v>
+        <v>13</v>
       </c>
       <c r="E215" t="n">
-        <v>510484.58</v>
+        <v>525977.1899999999</v>
       </c>
       <c r="F215" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G215" t="n">
-        <v>1628996.63</v>
+        <v>1653434.16</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>2017年8月</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>6.5</v>
+        <v>5.7</v>
       </c>
       <c r="C216" t="n">
-        <v>67550.99000000001</v>
+        <v>68623.16</v>
       </c>
       <c r="D216" t="n">
-        <v>14</v>
+        <v>12.7</v>
       </c>
       <c r="E216" t="n">
-        <v>518113.93</v>
+        <v>535565.05</v>
       </c>
       <c r="F216" t="n">
-        <v>8.9</v>
+        <v>9.1</v>
       </c>
       <c r="G216" t="n">
-        <v>1645156.6</v>
+        <v>1670013.4</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>2017年9月</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>7.2</v>
+        <v>3.4</v>
       </c>
       <c r="C217" t="n">
-        <v>69748.53999999999</v>
+        <v>70645.60000000001</v>
       </c>
       <c r="D217" t="n">
-        <v>14</v>
+        <v>11.8</v>
       </c>
       <c r="E217" t="n">
-        <v>517863.04</v>
+        <v>543790.15</v>
       </c>
       <c r="F217" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G217" t="n">
-        <v>1655662.07</v>
+        <v>1676768.54</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>2018年10月</t>
+          <t>2018-01</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>2.8</v>
+        <v>-13.8</v>
       </c>
       <c r="C218" t="n">
-        <v>70106.6208723426</v>
+        <v>74636.29008648179</v>
       </c>
       <c r="D218" t="n">
-        <v>2.7</v>
+        <v>15</v>
       </c>
       <c r="E218" t="n">
-        <v>540128.3654646419</v>
+        <v>543247.125701637</v>
       </c>
       <c r="F218" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="G218" t="n">
-        <v>1795561.59556379</v>
+        <v>1720814.46207142</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>2018年11月</t>
+          <t>2018-02</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>2.8</v>
+        <v>13.5</v>
       </c>
       <c r="C219" t="n">
-        <v>70563.3</v>
+        <v>81424.243408918</v>
       </c>
       <c r="D219" t="n">
-        <v>1.5</v>
+        <v>8.5</v>
       </c>
       <c r="E219" t="n">
-        <v>543498.66</v>
+        <v>517035.992841477</v>
       </c>
       <c r="F219" t="n">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G219" t="n">
-        <v>1813175.07</v>
+        <v>1729070.11807809</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>2018年12月</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="C220" t="n">
-        <v>73208.39999999999</v>
+        <v>72692.62867069909</v>
       </c>
       <c r="D220" t="n">
-        <v>1.5</v>
+        <v>7.1</v>
       </c>
       <c r="E220" t="n">
-        <v>551685.91</v>
+        <v>523540.074558301</v>
       </c>
       <c r="F220" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G220" t="n">
-        <v>1826744.22</v>
+        <v>1739859.47770953</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>2018年1月</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>-13.8</v>
+        <v>4.5</v>
       </c>
       <c r="C221" t="n">
-        <v>74636.29008648179</v>
+        <v>71476.456198</v>
       </c>
       <c r="D221" t="n">
-        <v>15</v>
+        <v>7.2</v>
       </c>
       <c r="E221" t="n">
-        <v>543247.125701637</v>
+        <v>525447.77034</v>
       </c>
       <c r="F221" t="n">
-        <v>8.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="G221" t="n">
-        <v>1720814.46207142</v>
+        <v>1737683.7295</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>2018年2月</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>13.5</v>
+        <v>3.6</v>
       </c>
       <c r="C222" t="n">
-        <v>81424.243408918</v>
+        <v>69774.807997</v>
       </c>
       <c r="D222" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="E222" t="n">
-        <v>517035.992841477</v>
+        <v>526276.71554</v>
       </c>
       <c r="F222" t="n">
-        <v>8.800000000000001</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="G222" t="n">
-        <v>1729070.11807809</v>
+        <v>1743063.7923</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>2018年3月</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>6</v>
+        <v>3.9</v>
       </c>
       <c r="C223" t="n">
-        <v>72692.62867069909</v>
+        <v>69589.33343499999</v>
       </c>
       <c r="D223" t="n">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="E223" t="n">
-        <v>523540.074558301</v>
+        <v>543944.71231</v>
       </c>
       <c r="F223" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="G223" t="n">
-        <v>1739859.47770953</v>
+        <v>1770178.3728</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>2018年4月</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="C224" t="n">
-        <v>71476.456198</v>
+        <v>69530.58977000001</v>
       </c>
       <c r="D224" t="n">
-        <v>7.2</v>
+        <v>5.1</v>
       </c>
       <c r="E224" t="n">
-        <v>525447.77034</v>
+        <v>536624.29388</v>
       </c>
       <c r="F224" t="n">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="G224" t="n">
-        <v>1737683.7295</v>
+        <v>1776196.1052</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>2018年5月</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="C225" t="n">
-        <v>69774.807997</v>
+        <v>69775.39303606009</v>
       </c>
       <c r="D225" t="n">
-        <v>6</v>
+        <v>3.9</v>
       </c>
       <c r="E225" t="n">
-        <v>526276.71554</v>
+        <v>538324.6443499679</v>
       </c>
       <c r="F225" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G225" t="n">
-        <v>1743063.7923</v>
+        <v>1788670.42970175</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>2018年6月</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>3.9</v>
+        <v>2.2</v>
       </c>
       <c r="C226" t="n">
-        <v>69589.33343499999</v>
+        <v>71254.2610754254</v>
       </c>
       <c r="D226" t="n">
-        <v>6.6</v>
+        <v>4</v>
       </c>
       <c r="E226" t="n">
-        <v>543944.71231</v>
+        <v>538574.082468765</v>
       </c>
       <c r="F226" t="n">
-        <v>8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="G226" t="n">
-        <v>1770178.3728</v>
+        <v>1801665.58145761</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>2018年7月</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="C227" t="n">
-        <v>69530.58977000001</v>
+        <v>70106.6208723426</v>
       </c>
       <c r="D227" t="n">
-        <v>5.1</v>
+        <v>2.7</v>
       </c>
       <c r="E227" t="n">
-        <v>536624.29388</v>
+        <v>540128.3654646419</v>
       </c>
       <c r="F227" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="G227" t="n">
-        <v>1776196.1052</v>
+        <v>1795561.59556379</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>2018年8月</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="C228" t="n">
-        <v>69775.39303606009</v>
+        <v>70563.3</v>
       </c>
       <c r="D228" t="n">
-        <v>3.9</v>
+        <v>1.5</v>
       </c>
       <c r="E228" t="n">
-        <v>538324.6443499679</v>
+        <v>543498.66</v>
       </c>
       <c r="F228" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="G228" t="n">
-        <v>1788670.42970175</v>
+        <v>1813175.07</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>2018年9月</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="C229" t="n">
-        <v>71254.2610754254</v>
+        <v>73208.39999999999</v>
       </c>
       <c r="D229" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="E229" t="n">
-        <v>538574.082468765</v>
+        <v>551685.91</v>
       </c>
       <c r="F229" t="n">
-        <v>8.300000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="G229" t="n">
-        <v>1801665.58145761</v>
+        <v>1826744.22</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>2019年10月</t>
+          <t>2019-01</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>4.7</v>
+        <v>17.2</v>
       </c>
       <c r="C230" t="n">
-        <v>73395.4028211595</v>
+        <v>87470.62</v>
       </c>
       <c r="D230" t="n">
-        <v>3.3</v>
+        <v>0.4</v>
       </c>
       <c r="E230" t="n">
-        <v>558143.921584286</v>
+        <v>545638.46</v>
       </c>
       <c r="F230" t="n">
         <v>8.4</v>
       </c>
       <c r="G230" t="n">
-        <v>1945600.54762236</v>
+        <v>1865935.33</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>2019年11月</t>
+          <t>2019-02</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>4.8</v>
+        <v>-2.4</v>
       </c>
       <c r="C231" t="n">
-        <v>73973.82000000001</v>
+        <v>79484.72</v>
       </c>
       <c r="D231" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="E231" t="n">
-        <v>562486.52</v>
+        <v>527190.48</v>
       </c>
       <c r="F231" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="G231" t="n">
-        <v>1961429.56</v>
+        <v>1867427.45</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>2019年12月</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>5.4</v>
+        <v>3.1</v>
       </c>
       <c r="C232" t="n">
-        <v>77189.47</v>
+        <v>74941.5761654684</v>
       </c>
       <c r="D232" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="E232" t="n">
-        <v>576009.15</v>
+        <v>547575.542289171</v>
       </c>
       <c r="F232" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="G232" t="n">
-        <v>1986488.82</v>
+        <v>1889412.13659677</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>2019年1月</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>17.2</v>
+        <v>3.5</v>
       </c>
       <c r="C233" t="n">
-        <v>87470.62</v>
+        <v>73965.7602892056</v>
       </c>
       <c r="D233" t="n">
-        <v>0.4</v>
+        <v>2.9</v>
       </c>
       <c r="E233" t="n">
-        <v>545638.46</v>
+        <v>540614.604573671</v>
       </c>
       <c r="F233" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="G233" t="n">
-        <v>1865935.33</v>
+        <v>1884670.32670746</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>2019年2月</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>-2.4</v>
+        <v>4.3</v>
       </c>
       <c r="C234" t="n">
-        <v>79484.72</v>
+        <v>72798.46000000001</v>
       </c>
       <c r="D234" t="n">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="E234" t="n">
-        <v>527190.48</v>
+        <v>544355.64</v>
       </c>
       <c r="F234" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="G234" t="n">
-        <v>1867427.45</v>
+        <v>1891153.7</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>2019年3月</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>3.1</v>
+        <v>4.3</v>
       </c>
       <c r="C235" t="n">
-        <v>74941.5761654684</v>
+        <v>72580.9596946565</v>
       </c>
       <c r="D235" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="E235" t="n">
-        <v>547575.542289171</v>
+        <v>567696.183227627</v>
       </c>
       <c r="F235" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="G235" t="n">
-        <v>1889412.13659677</v>
+        <v>1921360.19033428</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>2019年4月</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="C236" t="n">
-        <v>73965.7602892056</v>
+        <v>72689.2499618001</v>
       </c>
       <c r="D236" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="E236" t="n">
-        <v>540614.604573671</v>
+        <v>553043.107948356</v>
       </c>
       <c r="F236" t="n">
-        <v>8.5</v>
+        <v>8.1</v>
       </c>
       <c r="G236" t="n">
-        <v>1884670.32670746</v>
+        <v>1919410.81632526</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>2019年5月</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="C237" t="n">
-        <v>72798.46000000001</v>
+        <v>73152.62</v>
       </c>
       <c r="D237" t="n">
         <v>3.4</v>
       </c>
       <c r="E237" t="n">
-        <v>544355.64</v>
+        <v>556798.09</v>
       </c>
       <c r="F237" t="n">
-        <v>8.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G237" t="n">
-        <v>1891153.7</v>
+        <v>1935492.43</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>2019年6月</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="C238" t="n">
-        <v>72580.9596946565</v>
+        <v>74129.7548397611</v>
       </c>
       <c r="D238" t="n">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="E238" t="n">
-        <v>567696.183227627</v>
+        <v>557137.950020597</v>
       </c>
       <c r="F238" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="G238" t="n">
-        <v>1921360.19033428</v>
+        <v>1952250.48574828</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>2019年7月</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="C239" t="n">
-        <v>72689.2499618001</v>
+        <v>73395.4028211595</v>
       </c>
       <c r="D239" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="E239" t="n">
-        <v>553043.107948356</v>
+        <v>558143.921584286</v>
       </c>
       <c r="F239" t="n">
-        <v>8.1</v>
+        <v>8.4</v>
       </c>
       <c r="G239" t="n">
-        <v>1919410.81632526</v>
+        <v>1945600.54762236</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>2019年8月</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B240" t="n">
         <v>4.8</v>
       </c>
       <c r="C240" t="n">
-        <v>73152.62</v>
+        <v>73973.82000000001</v>
       </c>
       <c r="D240" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="E240" t="n">
-        <v>556798.09</v>
+        <v>562486.52</v>
       </c>
       <c r="F240" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="G240" t="n">
-        <v>1935492.43</v>
+        <v>1961429.56</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>2019年9月</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>4</v>
+        <v>5.4</v>
       </c>
       <c r="C241" t="n">
-        <v>74129.7548397611</v>
+        <v>77189.47</v>
       </c>
       <c r="D241" t="n">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="E241" t="n">
-        <v>557137.950020597</v>
+        <v>576009.15</v>
       </c>
       <c r="F241" t="n">
-        <v>8.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G241" t="n">
-        <v>1952250.48574828</v>
+        <v>1986488.82</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>2020年10月</t>
+          <t>2020-01</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>10.4</v>
+        <v>6.6</v>
       </c>
       <c r="C242" t="n">
-        <v>81036.42999999999</v>
+        <v>93249.16</v>
       </c>
       <c r="D242" t="n">
-        <v>9.1</v>
+        <v>0</v>
       </c>
       <c r="E242" t="n">
-        <v>609182.41</v>
+        <v>545531.79</v>
       </c>
       <c r="F242" t="n">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="G242" t="n">
-        <v>2149720.42</v>
+        <v>2023066.49</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>2020年11月</t>
+          <t>2020-02</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>10.3</v>
+        <v>10.9</v>
       </c>
       <c r="C243" t="n">
-        <v>81593.61</v>
+        <v>88187.05</v>
       </c>
       <c r="D243" t="n">
-        <v>10</v>
+        <v>4.8</v>
       </c>
       <c r="E243" t="n">
-        <v>618632.17</v>
+        <v>552700.73</v>
       </c>
       <c r="F243" t="n">
-        <v>10.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G243" t="n">
-        <v>2172002.55</v>
+        <v>2030830.42</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
         <is>
-          <t>2020年12月</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>9.199999999999999</v>
+        <v>10.8</v>
       </c>
       <c r="C244" t="n">
-        <v>84314.53</v>
+        <v>83022.21000000001</v>
       </c>
       <c r="D244" t="n">
-        <v>8.6</v>
+        <v>5</v>
       </c>
       <c r="E244" t="n">
-        <v>625580.99</v>
+        <v>575050.29</v>
       </c>
       <c r="F244" t="n">
         <v>10.1</v>
       </c>
       <c r="G244" t="n">
-        <v>2186795.89</v>
+        <v>2080923.41</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
         <is>
-          <t>2020年1月</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>6.6</v>
+        <v>10.2</v>
       </c>
       <c r="C245" t="n">
-        <v>93249.16</v>
+        <v>81485.21000000001</v>
       </c>
       <c r="D245" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="E245" t="n">
-        <v>545531.79</v>
+        <v>570150.48</v>
       </c>
       <c r="F245" t="n">
-        <v>8.4</v>
+        <v>11.1</v>
       </c>
       <c r="G245" t="n">
-        <v>2023066.49</v>
+        <v>2093533.83</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
         <is>
-          <t>2020年2月</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>10.9</v>
+        <v>9.5</v>
       </c>
       <c r="C246" t="n">
-        <v>88187.05</v>
+        <v>79706.83</v>
       </c>
       <c r="D246" t="n">
-        <v>4.8</v>
+        <v>6.8</v>
       </c>
       <c r="E246" t="n">
-        <v>552700.73</v>
+        <v>581111.0600000001</v>
       </c>
       <c r="F246" t="n">
-        <v>8.800000000000001</v>
+        <v>11.1</v>
       </c>
       <c r="G246" t="n">
-        <v>2030830.42</v>
+        <v>2100183.74</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
         <is>
-          <t>2020年3月</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>10.8</v>
+        <v>9.5</v>
       </c>
       <c r="C247" t="n">
-        <v>83022.21000000001</v>
+        <v>79459.41</v>
       </c>
       <c r="D247" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="E247" t="n">
-        <v>575050.29</v>
+        <v>604317.97</v>
       </c>
       <c r="F247" t="n">
-        <v>10.1</v>
+        <v>11.1</v>
       </c>
       <c r="G247" t="n">
-        <v>2080923.41</v>
+        <v>2134948.66</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
         <is>
-          <t>2020年4月</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>10.2</v>
+        <v>9.9</v>
       </c>
       <c r="C248" t="n">
-        <v>81485.21000000001</v>
+        <v>79867.21000000001</v>
       </c>
       <c r="D248" t="n">
-        <v>5.5</v>
+        <v>6.9</v>
       </c>
       <c r="E248" t="n">
-        <v>570150.48</v>
+        <v>591192.64</v>
       </c>
       <c r="F248" t="n">
-        <v>11.1</v>
+        <v>10.7</v>
       </c>
       <c r="G248" t="n">
-        <v>2093533.83</v>
+        <v>2125458.46</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
         <is>
-          <t>2020年5月</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="C249" t="n">
-        <v>79706.83</v>
+        <v>80042.71000000001</v>
       </c>
       <c r="D249" t="n">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="E249" t="n">
-        <v>581111.0600000001</v>
+        <v>601289.1</v>
       </c>
       <c r="F249" t="n">
-        <v>11.1</v>
+        <v>10.4</v>
       </c>
       <c r="G249" t="n">
-        <v>2100183.74</v>
+        <v>2136836.91</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
         <is>
-          <t>2020年6月</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>9.5</v>
+        <v>11.1</v>
       </c>
       <c r="C250" t="n">
-        <v>79459.41</v>
+        <v>82370.87</v>
       </c>
       <c r="D250" t="n">
-        <v>6.5</v>
+        <v>8.1</v>
       </c>
       <c r="E250" t="n">
-        <v>604317.97</v>
+        <v>602312.12</v>
       </c>
       <c r="F250" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="G250" t="n">
-        <v>2134948.66</v>
+        <v>2164084.8</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
         <is>
-          <t>2020年7月</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>9.9</v>
+        <v>10.4</v>
       </c>
       <c r="C251" t="n">
-        <v>79867.21000000001</v>
+        <v>81036.42999999999</v>
       </c>
       <c r="D251" t="n">
-        <v>6.9</v>
+        <v>9.1</v>
       </c>
       <c r="E251" t="n">
-        <v>591192.64</v>
+        <v>609182.41</v>
       </c>
       <c r="F251" t="n">
-        <v>10.7</v>
+        <v>10.5</v>
       </c>
       <c r="G251" t="n">
-        <v>2125458.46</v>
+        <v>2149720.42</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
         <is>
-          <t>2020年8月</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>9.4</v>
+        <v>10.3</v>
       </c>
       <c r="C252" t="n">
-        <v>80042.71000000001</v>
+        <v>81593.61</v>
       </c>
       <c r="D252" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E252" t="n">
-        <v>601289.1</v>
+        <v>618632.17</v>
       </c>
       <c r="F252" t="n">
-        <v>10.4</v>
+        <v>10.7</v>
       </c>
       <c r="G252" t="n">
-        <v>2136836.91</v>
+        <v>2172002.55</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
         <is>
-          <t>2020年9月</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>11.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C253" t="n">
-        <v>82370.87</v>
+        <v>84314.53</v>
       </c>
       <c r="D253" t="n">
-        <v>8.1</v>
+        <v>8.6</v>
       </c>
       <c r="E253" t="n">
-        <v>602312.12</v>
+        <v>625580.99</v>
       </c>
       <c r="F253" t="n">
-        <v>10.9</v>
+        <v>10.1</v>
       </c>
       <c r="G253" t="n">
-        <v>2164084.8</v>
+        <v>2186795.89</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
         <is>
-          <t>2021年10月</t>
+          <t>2021-01</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>6.2</v>
+        <v>-3.9</v>
       </c>
       <c r="C254" t="n">
-        <v>86085.78</v>
+        <v>89625.24000000001</v>
       </c>
       <c r="D254" t="n">
-        <v>2.8</v>
+        <v>14.7</v>
       </c>
       <c r="E254" t="n">
-        <v>626082.12</v>
+        <v>625563.8100000001</v>
       </c>
       <c r="F254" t="n">
-        <v>8.699999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="G254" t="n">
-        <v>2336160.48</v>
+        <v>2213047.33</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
         <is>
-          <t>2021年11月</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>7.2</v>
+        <v>4.2</v>
       </c>
       <c r="C255" t="n">
-        <v>87433.41</v>
+        <v>91924.60000000001</v>
       </c>
       <c r="D255" t="n">
-        <v>3</v>
+        <v>7.4</v>
       </c>
       <c r="E255" t="n">
-        <v>637482.04</v>
+        <v>593487.46</v>
       </c>
       <c r="F255" t="n">
-        <v>8.5</v>
+        <v>10.1</v>
       </c>
       <c r="G255" t="n">
-        <v>2356012.76</v>
+        <v>2236030.26</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
         <is>
-          <t>2021年1月</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>-3.9</v>
+        <v>4.2</v>
       </c>
       <c r="C256" t="n">
-        <v>89625.24000000001</v>
+        <v>86543.64</v>
       </c>
       <c r="D256" t="n">
-        <v>14.7</v>
+        <v>7.1</v>
       </c>
       <c r="E256" t="n">
-        <v>625563.8100000001</v>
+        <v>616113.17</v>
       </c>
       <c r="F256" t="n">
         <v>9.4</v>
       </c>
       <c r="G256" t="n">
-        <v>2213047.33</v>
+        <v>2276488.45</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
         <is>
-          <t>2021年2月</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>4.2</v>
+        <v>5.3</v>
       </c>
       <c r="C257" t="n">
-        <v>91924.60000000001</v>
+        <v>85803.37</v>
       </c>
       <c r="D257" t="n">
-        <v>7.4</v>
+        <v>6.2</v>
       </c>
       <c r="E257" t="n">
-        <v>593487.46</v>
+        <v>605421.89</v>
       </c>
       <c r="F257" t="n">
-        <v>10.1</v>
+        <v>8.1</v>
       </c>
       <c r="G257" t="n">
-        <v>2236030.26</v>
+        <v>2262107.12</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
         <is>
-          <t>2021年3月</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>4.2</v>
+        <v>5.6</v>
       </c>
       <c r="C258" t="n">
-        <v>86543.64</v>
+        <v>84177.72</v>
       </c>
       <c r="D258" t="n">
-        <v>7.1</v>
+        <v>6.1</v>
       </c>
       <c r="E258" t="n">
-        <v>616113.17</v>
+        <v>616828.3199999999</v>
       </c>
       <c r="F258" t="n">
-        <v>9.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="G258" t="n">
-        <v>2276488.45</v>
+        <v>2275538.07</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
         <is>
-          <t>2021年4月</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="C259" t="n">
-        <v>85803.37</v>
+        <v>84346.97</v>
       </c>
       <c r="D259" t="n">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="E259" t="n">
-        <v>605421.89</v>
+        <v>637479.36</v>
       </c>
       <c r="F259" t="n">
-        <v>8.1</v>
+        <v>8.6</v>
       </c>
       <c r="G259" t="n">
-        <v>2262107.12</v>
+        <v>2317788.36</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
         <is>
-          <t>2021年5月</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>5.6</v>
+        <v>6.1</v>
       </c>
       <c r="C260" t="n">
-        <v>84177.72</v>
+        <v>84717.56</v>
       </c>
       <c r="D260" t="n">
-        <v>6.1</v>
+        <v>4.9</v>
       </c>
       <c r="E260" t="n">
-        <v>616828.3199999999</v>
+        <v>620367.05</v>
       </c>
       <c r="F260" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="G260" t="n">
-        <v>2275538.07</v>
+        <v>2302153.82</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
         <is>
-          <t>2021年6月</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="C261" t="n">
-        <v>84346.97</v>
+        <v>85059.2</v>
       </c>
       <c r="D261" t="n">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="E261" t="n">
-        <v>637479.36</v>
+        <v>626658.6899999999</v>
       </c>
       <c r="F261" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G261" t="n">
-        <v>2317788.36</v>
+        <v>2312267.68</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
         <is>
-          <t>2021年7月</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>6.1</v>
+        <v>5.5</v>
       </c>
       <c r="C262" t="n">
-        <v>84717.56</v>
+        <v>86867.09</v>
       </c>
       <c r="D262" t="n">
-        <v>4.9</v>
+        <v>3.7</v>
       </c>
       <c r="E262" t="n">
-        <v>620367.05</v>
+        <v>624645.6800000001</v>
       </c>
       <c r="F262" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="G262" t="n">
-        <v>2302153.82</v>
+        <v>2342829.7</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
         <is>
-          <t>2021年8月</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="C263" t="n">
-        <v>85059.2</v>
+        <v>86085.78</v>
       </c>
       <c r="D263" t="n">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="E263" t="n">
-        <v>626658.6899999999</v>
+        <v>626082.12</v>
       </c>
       <c r="F263" t="n">
-        <v>8.199999999999999</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G263" t="n">
-        <v>2312267.68</v>
+        <v>2336160.48</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
         <is>
-          <t>2021年9月</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>5.5</v>
+        <v>7.2</v>
       </c>
       <c r="C264" t="n">
-        <v>86867.09</v>
+        <v>87433.41</v>
       </c>
       <c r="D264" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="E264" t="n">
-        <v>624645.6800000001</v>
+        <v>637482.04</v>
       </c>
       <c r="F264" t="n">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="G264" t="n">
-        <v>2342829.7</v>
+        <v>2356012.76</v>
       </c>
     </row>
   </sheetData>
